--- a/Documentacion/Sprint Backlog.xlsx
+++ b/Documentacion/Sprint Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6B973CF-A80E-45AA-9D36-3855701D22F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB5BA7C-1063-4C4E-9512-23DA505A77A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9915" yWindow="0" windowWidth="18990" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
   <si>
     <t>Columna</t>
   </si>
@@ -231,13 +231,85 @@
   </si>
   <si>
     <t>Elaboración de Documentación</t>
+  </si>
+  <si>
+    <t>HU004</t>
+  </si>
+  <si>
+    <t>Desarrollo de las Historias de usuario</t>
+  </si>
+  <si>
+    <t>Redacción de Historias de Usuario</t>
+  </si>
+  <si>
+    <t>Priorización de Historias de Usuario</t>
+  </si>
+  <si>
+    <t>HU006</t>
+  </si>
+  <si>
+    <t>Desarrollo del diseño de la base de datos</t>
+  </si>
+  <si>
+    <t>Modelado de Datos</t>
+  </si>
+  <si>
+    <t>Definición de Tablas</t>
+  </si>
+  <si>
+    <t>Diseño de Relaciones</t>
+  </si>
+  <si>
+    <t>Normalización</t>
+  </si>
+  <si>
+    <t>Documentación del Diseño</t>
+  </si>
+  <si>
+    <t>HU007</t>
+  </si>
+  <si>
+    <t>Implementacion de la capa de acceso a datos</t>
+  </si>
+  <si>
+    <t>Selección de Tecnologías</t>
+  </si>
+  <si>
+    <t>Definición de Interfaces</t>
+  </si>
+  <si>
+    <t>Implementación de Consultas</t>
+  </si>
+  <si>
+    <t>Documentación de la Implementación</t>
+  </si>
+  <si>
+    <t>HU008</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder crear roles de usuario, con la finalidad de asignar permisos específicos a diferentes usuarios.</t>
+  </si>
+  <si>
+    <t>Diseño de la Interfaz de Usuario</t>
+  </si>
+  <si>
+    <t>Desarrollo del Backend</t>
+  </si>
+  <si>
+    <t>Integración con la Capa de Acceso a Datos</t>
+  </si>
+  <si>
+    <t>HU009</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder modificar roles de usuario, con la finalidad de ajustar los permisos según las necesidades del negocio.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +342,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -384,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -411,12 +489,6 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -424,7 +496,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,23 +806,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BQ21"/>
+  <dimension ref="B1:BQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <pane xSplit="6" ySplit="5" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -828,110 +905,110 @@
       </c>
     </row>
     <row r="4" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="13"/>
+      <c r="O4" s="16"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="13"/>
+      <c r="R4" s="16"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="13"/>
+      <c r="U4" s="16"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="12" t="s">
+      <c r="W4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="13"/>
+      <c r="X4" s="16"/>
       <c r="Y4" s="8"/>
-      <c r="Z4" s="12" t="s">
+      <c r="Z4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="13"/>
+      <c r="AA4" s="16"/>
       <c r="AB4" s="8"/>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AD4" s="13"/>
+      <c r="AD4" s="16"/>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="12" t="s">
+      <c r="AF4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="13"/>
+      <c r="AG4" s="16"/>
       <c r="AH4" s="8"/>
-      <c r="AI4" s="12" t="s">
+      <c r="AI4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AJ4" s="13"/>
+      <c r="AJ4" s="16"/>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="12" t="s">
+      <c r="AL4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AM4" s="13"/>
+      <c r="AM4" s="16"/>
       <c r="AN4" s="8"/>
-      <c r="AO4" s="12" t="s">
+      <c r="AO4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AP4" s="13"/>
+      <c r="AP4" s="16"/>
       <c r="AQ4" s="8"/>
-      <c r="AR4" s="12" t="s">
+      <c r="AR4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AS4" s="13"/>
+      <c r="AS4" s="16"/>
       <c r="AT4" s="8"/>
-      <c r="AU4" s="12" t="s">
+      <c r="AU4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AV4" s="13"/>
+      <c r="AV4" s="16"/>
       <c r="AW4" s="8"/>
-      <c r="AX4" s="12" t="s">
+      <c r="AX4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AY4" s="13"/>
+      <c r="AY4" s="16"/>
       <c r="AZ4" s="8"/>
-      <c r="BA4" s="12" t="s">
+      <c r="BA4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="BB4" s="13"/>
+      <c r="BB4" s="16"/>
       <c r="BC4" s="8"/>
-      <c r="BD4" s="12" t="s">
+      <c r="BD4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="BE4" s="13"/>
+      <c r="BE4" s="16"/>
       <c r="BF4" s="8"/>
-      <c r="BG4" s="12" t="s">
+      <c r="BG4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="BH4" s="13"/>
+      <c r="BH4" s="16"/>
       <c r="BI4" s="8"/>
-      <c r="BJ4" s="12" t="s">
+      <c r="BJ4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BK4" s="13"/>
+      <c r="BK4" s="16"/>
       <c r="BL4" s="8"/>
-      <c r="BM4" s="12" t="s">
+      <c r="BM4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="BN4" s="13"/>
+      <c r="BN4" s="16"/>
       <c r="BO4" s="8"/>
-      <c r="BP4" s="12" t="s">
+      <c r="BP4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="BQ4" s="13"/>
+      <c r="BQ4" s="16"/>
     </row>
     <row r="5" spans="2:69" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -1103,13 +1180,13 @@
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1118,144 +1195,142 @@
       <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="7">
         <f>G6-H6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7">
-        <f t="shared" ref="L6:L21" si="0">I6-K6</f>
-        <v>1</v>
+        <f t="shared" ref="L6:L25" si="0">I6-K6</f>
+        <v>2</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7">
-        <f t="shared" ref="O6:O21" si="1">L6-N6</f>
-        <v>1</v>
+        <f t="shared" ref="O6:O24" si="1">L6-N6</f>
+        <v>2</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7">
         <f t="shared" ref="R6:R21" si="2">O6-Q6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7">
         <f t="shared" ref="U6:U21" si="3">R6-T6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6" s="9"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7">
         <f t="shared" ref="X6:X21" si="4">U6-W6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7">
         <f t="shared" ref="AA6:AA21" si="5">X6-Z6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7">
         <f t="shared" ref="AD6:AD21" si="6">AA6-AC6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" s="9"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7">
         <f t="shared" ref="AG6:AG21" si="7">AD6-AF6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" s="9"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7">
         <f t="shared" ref="AJ6:AJ21" si="8">AG6-AI6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="9"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7">
         <f t="shared" ref="AM6:AM21" si="9">AJ6-AL6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN6" s="9"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7">
         <f t="shared" ref="AP6:AP21" si="10">AM6-AO6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7">
         <f t="shared" ref="AS6:AS21" si="11">AP6-AR6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="9"/>
       <c r="AU6" s="7"/>
       <c r="AV6" s="7">
         <f t="shared" ref="AV6:AV21" si="12">AS6-AU6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW6" s="9"/>
       <c r="AX6" s="7"/>
       <c r="AY6" s="7">
         <f t="shared" ref="AY6:AY21" si="13">AV6-AX6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ6" s="9"/>
       <c r="BA6" s="7"/>
       <c r="BB6" s="7">
         <f t="shared" ref="BB6:BB21" si="14">AY6-BA6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC6" s="9"/>
       <c r="BD6" s="7"/>
       <c r="BE6" s="7">
         <f t="shared" ref="BE6:BE21" si="15">BB6-BD6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF6" s="9"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7">
         <f t="shared" ref="BH6:BH21" si="16">BE6-BG6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI6" s="9"/>
       <c r="BJ6" s="7"/>
       <c r="BK6" s="7">
         <f t="shared" ref="BK6:BK21" si="17">BH6-BJ6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL6" s="9"/>
       <c r="BM6" s="7"/>
       <c r="BN6" s="7">
         <f>BK6-BM6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO6" s="9"/>
       <c r="BP6" s="10">
         <f>H6+K6+N6+Q6+T6+W6+Z6+AC6+AF6+AI6+AL6+AO6+AR6+AU6+AX6+BA6+BD6+BG6+BJ6+BM6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ6" s="10">
         <f>G6-BP6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1264,7 +1339,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7">
-        <f t="shared" ref="I7:I21" si="18">G7-H7</f>
+        <f t="shared" ref="I7:I22" si="18">G7-H7</f>
         <v>0</v>
       </c>
       <c r="J7" s="9"/>
@@ -1383,21 +1458,21 @@
       </c>
       <c r="BO7" s="9"/>
       <c r="BP7" s="10">
-        <f t="shared" ref="BP7:BP21" si="20">H7+K7+N7+Q7+T7+W7+Z7+AC7+AF7+AI7+AL7+AO7+AR7+AU7+AX7+BA7+BD7+BG7+BJ7+BM7</f>
+        <f t="shared" ref="BP7:BP13" si="20">H7+K7+N7+Q7+T7+W7+Z7+AC7+AF7+AI7+AL7+AO7+AR7+AU7+AX7+BA7+BD7+BG7+BJ7+BM7</f>
         <v>0</v>
       </c>
       <c r="BQ7" s="10">
-        <f t="shared" ref="BQ7:BQ21" si="21">G7-BP7</f>
+        <f t="shared" ref="BQ7:BQ13" si="21">G7-BP7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1536,10 +1611,10 @@
     <row r="9" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1679,13 +1754,13 @@
       <c r="B10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -1826,10 +1901,10 @@
     <row r="11" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1968,10 +2043,10 @@
     <row r="12" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -2247,13 +2322,13 @@
       <c r="B14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -2264,140 +2339,140 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
-        <f>G14-H14</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7">
-        <f>I10-K14</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7">
-        <f t="shared" ref="O14:O17" si="22">L14-N14</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7">
-        <f t="shared" ref="R14:R17" si="23">O14-Q14</f>
+        <f t="shared" ref="R14:R17" si="22">O14-Q14</f>
         <v>2</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7">
-        <f t="shared" ref="U14:U17" si="24">R14-T14</f>
+        <f t="shared" ref="U14:U17" si="23">R14-T14</f>
         <v>2</v>
       </c>
       <c r="V14" s="9"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7">
-        <f t="shared" ref="X14:X17" si="25">U14-W14</f>
+        <f t="shared" ref="X14:X17" si="24">U14-W14</f>
         <v>2</v>
       </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7">
-        <f t="shared" ref="AA14:AA17" si="26">X14-Z14</f>
+        <f t="shared" ref="AA14:AA17" si="25">X14-Z14</f>
         <v>2</v>
       </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7">
-        <f t="shared" ref="AD14:AD17" si="27">AA14-AC14</f>
+        <f t="shared" ref="AD14:AD17" si="26">AA14-AC14</f>
         <v>2</v>
       </c>
       <c r="AE14" s="9"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7">
-        <f t="shared" ref="AG14:AG17" si="28">AD14-AF14</f>
+        <f t="shared" ref="AG14:AG17" si="27">AD14-AF14</f>
         <v>2</v>
       </c>
       <c r="AH14" s="9"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7">
-        <f t="shared" ref="AJ14:AJ17" si="29">AG14-AI14</f>
+        <f t="shared" ref="AJ14:AJ17" si="28">AG14-AI14</f>
         <v>2</v>
       </c>
       <c r="AK14" s="9"/>
       <c r="AL14" s="7"/>
       <c r="AM14" s="7">
-        <f t="shared" ref="AM14:AM17" si="30">AJ14-AL14</f>
+        <f t="shared" ref="AM14:AM17" si="29">AJ14-AL14</f>
         <v>2</v>
       </c>
       <c r="AN14" s="9"/>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7">
-        <f t="shared" ref="AP14:AP17" si="31">AM14-AO14</f>
+        <f t="shared" ref="AP14:AP17" si="30">AM14-AO14</f>
         <v>2</v>
       </c>
       <c r="AQ14" s="9"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="7">
-        <f t="shared" ref="AS14:AS17" si="32">AP14-AR14</f>
+        <f t="shared" ref="AS14:AS17" si="31">AP14-AR14</f>
         <v>2</v>
       </c>
       <c r="AT14" s="9"/>
       <c r="AU14" s="7"/>
       <c r="AV14" s="7">
-        <f t="shared" ref="AV14:AV17" si="33">AS14-AU14</f>
+        <f t="shared" ref="AV14:AV17" si="32">AS14-AU14</f>
         <v>2</v>
       </c>
       <c r="AW14" s="9"/>
       <c r="AX14" s="7"/>
       <c r="AY14" s="7">
-        <f t="shared" ref="AY14:AY17" si="34">AV14-AX14</f>
+        <f t="shared" ref="AY14:AY17" si="33">AV14-AX14</f>
         <v>2</v>
       </c>
       <c r="AZ14" s="9"/>
       <c r="BA14" s="7"/>
       <c r="BB14" s="7">
-        <f t="shared" ref="BB14:BB17" si="35">AY14-BA14</f>
+        <f t="shared" ref="BB14:BB17" si="34">AY14-BA14</f>
         <v>2</v>
       </c>
       <c r="BC14" s="9"/>
       <c r="BD14" s="7"/>
       <c r="BE14" s="7">
-        <f t="shared" ref="BE14:BE17" si="36">BB14-BD14</f>
+        <f t="shared" ref="BE14:BE17" si="35">BB14-BD14</f>
         <v>2</v>
       </c>
       <c r="BF14" s="9"/>
       <c r="BG14" s="7"/>
       <c r="BH14" s="7">
-        <f t="shared" ref="BH14:BH17" si="37">BE14-BG14</f>
+        <f t="shared" ref="BH14:BH17" si="36">BE14-BG14</f>
         <v>2</v>
       </c>
       <c r="BI14" s="9"/>
       <c r="BJ14" s="7"/>
       <c r="BK14" s="7">
-        <f t="shared" ref="BK14:BK17" si="38">BH14-BJ14</f>
+        <f t="shared" ref="BK14:BK17" si="37">BH14-BJ14</f>
         <v>2</v>
       </c>
       <c r="BL14" s="9"/>
       <c r="BM14" s="7"/>
       <c r="BN14" s="7">
-        <f t="shared" ref="BN14:BN17" si="39">BK14-BM14</f>
+        <f t="shared" ref="BN14:BN17" si="38">BK14-BM14</f>
         <v>2</v>
       </c>
       <c r="BO14" s="9"/>
       <c r="BP14" s="10">
-        <f>H10+K14+N14+Q14+T14+W14+Z14+AC14+AF14+AI14+AL14+AO14+AR14+AU14+AX14+BA14+BD14+BG14+BJ14+BM14</f>
+        <f t="shared" ref="BP14:BP21" si="39">H10+K14+N14+Q14+T14+W14+Z14+AC14+AF14+AI14+AL14+AO14+AR14+AU14+AX14+BA14+BD14+BG14+BJ14+BM14</f>
         <v>0</v>
       </c>
       <c r="BQ14" s="10">
-        <f>G10-BP14</f>
+        <f t="shared" ref="BQ14:BQ21" si="40">G10-BP14</f>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -2406,140 +2481,140 @@
       <c r="G15" s="4"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
-        <f>G15-H15</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7">
-        <f>I11-K15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V15" s="9"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AE15" s="9"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AH15" s="9"/>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AK15" s="9"/>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN15" s="9"/>
       <c r="AO15" s="7"/>
       <c r="AP15" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ15" s="9"/>
       <c r="AR15" s="7"/>
       <c r="AS15" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AT15" s="9"/>
       <c r="AU15" s="7"/>
       <c r="AV15" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AW15" s="9"/>
       <c r="AX15" s="7"/>
       <c r="AY15" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AZ15" s="9"/>
       <c r="BA15" s="7"/>
       <c r="BB15" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BC15" s="9"/>
       <c r="BD15" s="7"/>
       <c r="BE15" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BF15" s="9"/>
       <c r="BG15" s="7"/>
       <c r="BH15" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BI15" s="9"/>
       <c r="BJ15" s="7"/>
       <c r="BK15" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BL15" s="9"/>
       <c r="BM15" s="7"/>
       <c r="BN15" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BO15" s="9"/>
       <c r="BP15" s="10">
-        <f>H11+K15+N15+Q15+T15+W15+Z15+AC15+AF15+AI15+AL15+AO15+AR15+AU15+AX15+BA15+BD15+BG15+BJ15+BM15</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BQ15" s="10">
-        <f>G11-BP15</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -2548,421 +2623,445 @@
       <c r="G16" s="4"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7">
-        <f>G16-H16</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7">
-        <f>I12-K16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V16" s="9"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AE16" s="9"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AH16" s="9"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AK16" s="9"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN16" s="9"/>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="9"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AT16" s="9"/>
       <c r="AU16" s="7"/>
       <c r="AV16" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AW16" s="9"/>
       <c r="AX16" s="7"/>
       <c r="AY16" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AZ16" s="9"/>
       <c r="BA16" s="7"/>
       <c r="BB16" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BC16" s="9"/>
       <c r="BD16" s="7"/>
       <c r="BE16" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BF16" s="9"/>
       <c r="BG16" s="7"/>
       <c r="BH16" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BI16" s="9"/>
       <c r="BJ16" s="7"/>
       <c r="BK16" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BL16" s="9"/>
       <c r="BM16" s="7"/>
       <c r="BN16" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BO16" s="9"/>
       <c r="BP16" s="10">
-        <f>H12+K16+N16+Q16+T16+W16+Z16+AC16+AF16+AI16+AL16+AO16+AR16+AU16+AX16+BA16+BD16+BG16+BJ16+BM16</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BQ16" s="10">
-        <f>G12-BP16</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="16" t="s">
+    <row r="17" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7">
-        <f>G17-H17</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7">
-        <f>I13-K17</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="V17" s="9"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2</v>
       </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>2</v>
       </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="7"/>
       <c r="AD17" s="7">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="AE17" s="9"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
       <c r="AH17" s="9"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>2</v>
       </c>
       <c r="AK17" s="9"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>2</v>
       </c>
       <c r="AN17" s="9"/>
       <c r="AO17" s="7"/>
       <c r="AP17" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>2</v>
       </c>
       <c r="AQ17" s="9"/>
       <c r="AR17" s="7"/>
       <c r="AS17" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
       <c r="AT17" s="9"/>
       <c r="AU17" s="7"/>
       <c r="AV17" s="7">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>2</v>
       </c>
       <c r="AW17" s="9"/>
       <c r="AX17" s="7"/>
       <c r="AY17" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>2</v>
       </c>
       <c r="AZ17" s="9"/>
       <c r="BA17" s="7"/>
       <c r="BB17" s="7">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2</v>
       </c>
       <c r="BC17" s="9"/>
       <c r="BD17" s="7"/>
       <c r="BE17" s="7">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>2</v>
       </c>
       <c r="BF17" s="9"/>
       <c r="BG17" s="7"/>
       <c r="BH17" s="7">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>2</v>
       </c>
       <c r="BI17" s="9"/>
       <c r="BJ17" s="7"/>
       <c r="BK17" s="7">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>2</v>
       </c>
       <c r="BL17" s="9"/>
       <c r="BM17" s="7"/>
       <c r="BN17" s="7">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>2</v>
       </c>
       <c r="BO17" s="9"/>
       <c r="BP17" s="10">
-        <f>H13+K17+N17+Q17+T17+W17+Z17+AC17+AF17+AI17+AL17+AO17+AR17+AU17+AX17+BA17+BD17+BG17+BJ17+BM17</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BQ17" s="10">
-        <f>G13-BP17</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7">
-        <f>I14-K18</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" ref="R18:R32" si="41">O18-Q18</f>
+        <v>0</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" ref="U18:U32" si="42">R18-T18</f>
+        <v>0</v>
       </c>
       <c r="V18" s="9"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" ref="X18:X32" si="43">U18-W18</f>
+        <v>0</v>
       </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" ref="AA18:AA32" si="44">X18-Z18</f>
+        <v>0</v>
       </c>
       <c r="AB18" s="9"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" ref="AD18:AD32" si="45">AA18-AC18</f>
+        <v>0</v>
       </c>
       <c r="AE18" s="9"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" ref="AG18:AG32" si="46">AD18-AF18</f>
+        <v>0</v>
       </c>
       <c r="AH18" s="9"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" ref="AJ18:AJ32" si="47">AG18-AI18</f>
+        <v>0</v>
       </c>
       <c r="AK18" s="9"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" ref="AM18:AM32" si="48">AJ18-AL18</f>
+        <v>0</v>
       </c>
       <c r="AN18" s="9"/>
       <c r="AO18" s="7"/>
       <c r="AP18" s="7">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" ref="AP18:AP32" si="49">AM18-AO18</f>
+        <v>0</v>
       </c>
       <c r="AQ18" s="9"/>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" ref="AS18:AS32" si="50">AP18-AR18</f>
+        <v>0</v>
       </c>
       <c r="AT18" s="9"/>
       <c r="AU18" s="7"/>
       <c r="AV18" s="7">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" ref="AV18:AV32" si="51">AS18-AU18</f>
+        <v>0</v>
       </c>
       <c r="AW18" s="9"/>
       <c r="AX18" s="7"/>
       <c r="AY18" s="7">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" ref="AY18:AY32" si="52">AV18-AX18</f>
+        <v>0</v>
       </c>
       <c r="AZ18" s="9"/>
       <c r="BA18" s="7"/>
       <c r="BB18" s="7">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" ref="BB18:BB32" si="53">AY18-BA18</f>
+        <v>0</v>
       </c>
       <c r="BC18" s="9"/>
       <c r="BD18" s="7"/>
       <c r="BE18" s="7">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" ref="BE18:BE32" si="54">BB18-BD18</f>
+        <v>0</v>
       </c>
       <c r="BF18" s="9"/>
       <c r="BG18" s="7"/>
       <c r="BH18" s="7">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" ref="BH18:BH32" si="55">BE18-BG18</f>
+        <v>0</v>
       </c>
       <c r="BI18" s="9"/>
       <c r="BJ18" s="7"/>
       <c r="BK18" s="7">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <f t="shared" ref="BK18:BK32" si="56">BH18-BJ18</f>
+        <v>0</v>
       </c>
       <c r="BL18" s="9"/>
       <c r="BM18" s="7"/>
       <c r="BN18" s="7">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" ref="BN18:BN32" si="57">BK18-BM18</f>
+        <v>0</v>
       </c>
       <c r="BO18" s="9"/>
       <c r="BP18" s="10">
-        <f>H14+K18+N18+Q18+T18+W18+Z18+AC18+AF18+AI18+AL18+AO18+AR18+AU18+AX18+BA18+BD18+BG18+BJ18+BM18</f>
+        <f t="shared" ref="BP18:BP32" si="58">H14+K18+N18+Q18+T18+W18+Z18+AC18+AF18+AI18+AL18+AO18+AR18+AU18+AX18+BA18+BD18+BG18+BJ18+BM18</f>
         <v>0</v>
       </c>
       <c r="BQ18" s="10">
-        <f>G14-BP18</f>
+        <f t="shared" ref="BQ18:BQ32" si="59">G14-BP18</f>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7">
-        <f>I15-K19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19" s="9"/>
@@ -2974,261 +3073,285 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="V19" s="9"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE19" s="9"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AH19" s="9"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AK19" s="9"/>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AN19" s="9"/>
       <c r="AO19" s="7"/>
       <c r="AP19" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AQ19" s="9"/>
       <c r="AR19" s="7"/>
       <c r="AS19" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AT19" s="9"/>
       <c r="AU19" s="7"/>
       <c r="AV19" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AW19" s="9"/>
       <c r="AX19" s="7"/>
       <c r="AY19" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AZ19" s="9"/>
       <c r="BA19" s="7"/>
       <c r="BB19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BC19" s="9"/>
       <c r="BD19" s="7"/>
       <c r="BE19" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="BF19" s="9"/>
       <c r="BG19" s="7"/>
       <c r="BH19" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BI19" s="9"/>
       <c r="BJ19" s="7"/>
       <c r="BK19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="BL19" s="9"/>
       <c r="BM19" s="7"/>
       <c r="BN19" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="BO19" s="9"/>
       <c r="BP19" s="10">
-        <f>H15+K19+N19+Q19+T19+W19+Z19+AC19+AF19+AI19+AL19+AO19+AR19+AU19+AX19+BA19+BD19+BG19+BJ19+BM19</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="BQ19" s="10">
-        <f>G15-BP19</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="B20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7">
-        <f>I16-K20</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>2</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>2</v>
       </c>
       <c r="V20" s="9"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>2</v>
       </c>
       <c r="Y20" s="9"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>2</v>
       </c>
       <c r="AB20" s="9"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>2</v>
       </c>
       <c r="AE20" s="9"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>2</v>
       </c>
       <c r="AH20" s="9"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>2</v>
       </c>
       <c r="AK20" s="9"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>2</v>
       </c>
       <c r="AN20" s="9"/>
       <c r="AO20" s="7"/>
       <c r="AP20" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>2</v>
       </c>
       <c r="AQ20" s="9"/>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>2</v>
       </c>
       <c r="AT20" s="9"/>
       <c r="AU20" s="7"/>
       <c r="AV20" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>2</v>
       </c>
       <c r="AW20" s="9"/>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="52"/>
+        <v>2</v>
       </c>
       <c r="AZ20" s="9"/>
       <c r="BA20" s="7"/>
       <c r="BB20" s="7">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="53"/>
+        <v>2</v>
       </c>
       <c r="BC20" s="9"/>
       <c r="BD20" s="7"/>
       <c r="BE20" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>2</v>
       </c>
       <c r="BF20" s="9"/>
       <c r="BG20" s="7"/>
       <c r="BH20" s="7">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>2</v>
       </c>
       <c r="BI20" s="9"/>
       <c r="BJ20" s="7"/>
       <c r="BK20" s="7">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="56"/>
+        <v>2</v>
       </c>
       <c r="BL20" s="9"/>
       <c r="BM20" s="7"/>
       <c r="BN20" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="57"/>
+        <v>2</v>
       </c>
       <c r="BO20" s="9"/>
       <c r="BP20" s="10">
-        <f>H16+K20+N20+Q20+T20+W20+Z20+AC20+AF20+AI20+AL20+AO20+AR20+AU20+AX20+BA20+BD20+BG20+BJ20+BM20</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="BQ20" s="10">
-        <f>G16-BP20</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7">
-        <f>I17-K21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M21" s="9"/>
@@ -3240,117 +3363,2411 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S21" s="9"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="V21" s="9"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE21" s="9"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AH21" s="9"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AK21" s="9"/>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AN21" s="9"/>
       <c r="AO21" s="7"/>
       <c r="AP21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AQ21" s="9"/>
       <c r="AR21" s="7"/>
       <c r="AS21" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AT21" s="9"/>
       <c r="AU21" s="7"/>
       <c r="AV21" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AW21" s="9"/>
       <c r="AX21" s="7"/>
       <c r="AY21" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AZ21" s="9"/>
       <c r="BA21" s="7"/>
       <c r="BB21" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BC21" s="9"/>
       <c r="BD21" s="7"/>
       <c r="BE21" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="BF21" s="9"/>
       <c r="BG21" s="7"/>
       <c r="BH21" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BI21" s="9"/>
       <c r="BJ21" s="7"/>
       <c r="BK21" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="BL21" s="9"/>
       <c r="BM21" s="7"/>
       <c r="BN21" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="BO21" s="9"/>
       <c r="BP21" s="10">
-        <f>H17+K21+N21+Q21+T21+W21+Z21+AC21+AF21+AI21+AL21+AO21+AR21+AU21+AX21+BA21+BD21+BG21+BJ21+BM21</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="BQ21" s="10">
-        <f>G17-BP21</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="9"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="7">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="7"/>
+      <c r="BE22" s="7">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BF22" s="9"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="7">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="7"/>
+      <c r="BK22" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BL22" s="9"/>
+      <c r="BM22" s="7"/>
+      <c r="BN22" s="7">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BO22" s="9"/>
+      <c r="BP22" s="10">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7">
+        <f t="shared" ref="I18:I37" si="60">G23-H23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="9"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="9"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="7">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="7"/>
+      <c r="BE23" s="7">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="7"/>
+      <c r="BH23" s="7">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BI23" s="9"/>
+      <c r="BJ23" s="7"/>
+      <c r="BK23" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BL23" s="9"/>
+      <c r="BM23" s="7"/>
+      <c r="BN23" s="7">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BO23" s="9"/>
+      <c r="BP23" s="10">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
+        <f t="shared" si="60"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="S24" s="9"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="V24" s="9"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7">
+        <f t="shared" si="46"/>
+        <v>4</v>
+      </c>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7">
+        <f t="shared" si="47"/>
+        <v>4</v>
+      </c>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7">
+        <f t="shared" si="52"/>
+        <v>4</v>
+      </c>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="7"/>
+      <c r="BB24" s="7">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="7"/>
+      <c r="BE24" s="7">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="BF24" s="9"/>
+      <c r="BG24" s="7"/>
+      <c r="BH24" s="7">
+        <f t="shared" si="55"/>
+        <v>4</v>
+      </c>
+      <c r="BI24" s="9"/>
+      <c r="BJ24" s="7"/>
+      <c r="BK24" s="7">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="BL24" s="9"/>
+      <c r="BM24" s="7"/>
+      <c r="BN24" s="7">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="BO24" s="9"/>
+      <c r="BP24" s="10">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="10">
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7">
+        <f t="shared" ref="O18:O32" si="61">L25-N25</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="9"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="9"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="7"/>
+      <c r="AY25" s="7">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="7"/>
+      <c r="BB25" s="7">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="7"/>
+      <c r="BE25" s="7">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BF25" s="9"/>
+      <c r="BG25" s="7"/>
+      <c r="BH25" s="7">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BI25" s="9"/>
+      <c r="BJ25" s="7"/>
+      <c r="BK25" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BL25" s="9"/>
+      <c r="BM25" s="7"/>
+      <c r="BN25" s="7">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BO25" s="9"/>
+      <c r="BP25" s="10">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7">
+        <f t="shared" ref="L18:L32" si="62">I22-K26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="9"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="9"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="7"/>
+      <c r="BE26" s="7">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BF26" s="9"/>
+      <c r="BG26" s="7"/>
+      <c r="BH26" s="7">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BI26" s="9"/>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BL26" s="9"/>
+      <c r="BM26" s="7"/>
+      <c r="BN26" s="7">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BO26" s="9"/>
+      <c r="BP26" s="10">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="9"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="9"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AW27" s="9"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="9"/>
+      <c r="BA27" s="7"/>
+      <c r="BB27" s="7">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="7"/>
+      <c r="BE27" s="7">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BF27" s="9"/>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="7">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BI27" s="9"/>
+      <c r="BJ27" s="7"/>
+      <c r="BK27" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BL27" s="9"/>
+      <c r="BM27" s="7"/>
+      <c r="BN27" s="7">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BO27" s="9"/>
+      <c r="BP27" s="10">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7">
+        <f t="shared" si="62"/>
+        <v>4</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7">
+        <f t="shared" si="61"/>
+        <v>4</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="S28" s="9"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="V28" s="9"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7">
+        <f t="shared" si="46"/>
+        <v>4</v>
+      </c>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7">
+        <f t="shared" si="47"/>
+        <v>4</v>
+      </c>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="7"/>
+      <c r="AP28" s="7">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+      <c r="AQ28" s="9"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+      <c r="AT28" s="9"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="7">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="AW28" s="9"/>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="7">
+        <f t="shared" si="52"/>
+        <v>4</v>
+      </c>
+      <c r="AZ28" s="9"/>
+      <c r="BA28" s="7"/>
+      <c r="BB28" s="7">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="BC28" s="9"/>
+      <c r="BD28" s="7"/>
+      <c r="BE28" s="7">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="BF28" s="9"/>
+      <c r="BG28" s="7"/>
+      <c r="BH28" s="7">
+        <f t="shared" si="55"/>
+        <v>4</v>
+      </c>
+      <c r="BI28" s="9"/>
+      <c r="BJ28" s="7"/>
+      <c r="BK28" s="7">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="BL28" s="9"/>
+      <c r="BM28" s="7"/>
+      <c r="BN28" s="7">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="BO28" s="9"/>
+      <c r="BP28" s="10">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="10">
+        <f t="shared" si="59"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:69" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
+        <f t="shared" si="60"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="9"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="9"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="9"/>
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AT29" s="9"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AW29" s="9"/>
+      <c r="AX29" s="7"/>
+      <c r="AY29" s="7">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="9"/>
+      <c r="BA29" s="7"/>
+      <c r="BB29" s="7">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BC29" s="9"/>
+      <c r="BD29" s="7"/>
+      <c r="BE29" s="7">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BF29" s="9"/>
+      <c r="BG29" s="7"/>
+      <c r="BH29" s="7">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BI29" s="9"/>
+      <c r="BJ29" s="7"/>
+      <c r="BK29" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BL29" s="9"/>
+      <c r="BM29" s="7"/>
+      <c r="BN29" s="7">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BO29" s="9"/>
+      <c r="BP29" s="10">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BQ29" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="9"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="9"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="9"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AT30" s="9"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AW30" s="9"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="9"/>
+      <c r="BA30" s="7"/>
+      <c r="BB30" s="7">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BC30" s="9"/>
+      <c r="BD30" s="7"/>
+      <c r="BE30" s="7">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BF30" s="9"/>
+      <c r="BG30" s="7"/>
+      <c r="BH30" s="7">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BI30" s="9"/>
+      <c r="BJ30" s="7"/>
+      <c r="BK30" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BL30" s="9"/>
+      <c r="BM30" s="7"/>
+      <c r="BN30" s="7">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BO30" s="9"/>
+      <c r="BP30" s="10">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="9"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="9"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="9"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AT31" s="9"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AW31" s="9"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="7">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="7"/>
+      <c r="BB31" s="7">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BC31" s="9"/>
+      <c r="BD31" s="7"/>
+      <c r="BE31" s="7">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BF31" s="9"/>
+      <c r="BG31" s="7"/>
+      <c r="BH31" s="7">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BI31" s="9"/>
+      <c r="BJ31" s="7"/>
+      <c r="BK31" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BL31" s="9"/>
+      <c r="BM31" s="7"/>
+      <c r="BN31" s="7">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BO31" s="9"/>
+      <c r="BP31" s="10">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BQ31" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="9"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="9"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="9"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AT32" s="9"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AW32" s="9"/>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="7">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="9"/>
+      <c r="BA32" s="7"/>
+      <c r="BB32" s="7">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BC32" s="9"/>
+      <c r="BD32" s="7"/>
+      <c r="BE32" s="7">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BF32" s="9"/>
+      <c r="BG32" s="7"/>
+      <c r="BH32" s="7">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BI32" s="9"/>
+      <c r="BJ32" s="7"/>
+      <c r="BK32" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BL32" s="9"/>
+      <c r="BM32" s="7"/>
+      <c r="BN32" s="7">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BO32" s="9"/>
+      <c r="BP32" s="10">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BQ32" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:69" ht="60" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="4">
+        <v>2</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7">
+        <f t="shared" si="60"/>
+        <v>2</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7">
+        <f t="shared" ref="L33:L37" si="63">I29-K33</f>
+        <v>2</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7">
+        <f t="shared" ref="O33:O37" si="64">L33-N33</f>
+        <v>2</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7">
+        <f t="shared" ref="R33:R37" si="65">O33-Q33</f>
+        <v>2</v>
+      </c>
+      <c r="S33" s="9"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7">
+        <f t="shared" ref="U33:U37" si="66">R33-T33</f>
+        <v>2</v>
+      </c>
+      <c r="V33" s="9"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7">
+        <f t="shared" ref="X33:X37" si="67">U33-W33</f>
+        <v>2</v>
+      </c>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7">
+        <f t="shared" ref="AA33:AA37" si="68">X33-Z33</f>
+        <v>2</v>
+      </c>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7">
+        <f t="shared" ref="AD33:AD37" si="69">AA33-AC33</f>
+        <v>2</v>
+      </c>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7">
+        <f t="shared" ref="AG33:AG37" si="70">AD33-AF33</f>
+        <v>2</v>
+      </c>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7">
+        <f t="shared" ref="AJ33:AJ37" si="71">AG33-AI33</f>
+        <v>2</v>
+      </c>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7">
+        <f t="shared" ref="AM33:AM37" si="72">AJ33-AL33</f>
+        <v>2</v>
+      </c>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7">
+        <f t="shared" ref="AP33:AP37" si="73">AM33-AO33</f>
+        <v>2</v>
+      </c>
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="7">
+        <f t="shared" ref="AS33:AS37" si="74">AP33-AR33</f>
+        <v>2</v>
+      </c>
+      <c r="AT33" s="9"/>
+      <c r="AU33" s="7"/>
+      <c r="AV33" s="7">
+        <f t="shared" ref="AV33:AV37" si="75">AS33-AU33</f>
+        <v>2</v>
+      </c>
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="7"/>
+      <c r="AY33" s="7">
+        <f t="shared" ref="AY33:AY37" si="76">AV33-AX33</f>
+        <v>2</v>
+      </c>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="7"/>
+      <c r="BB33" s="7">
+        <f t="shared" ref="BB33:BB37" si="77">AY33-BA33</f>
+        <v>2</v>
+      </c>
+      <c r="BC33" s="9"/>
+      <c r="BD33" s="7"/>
+      <c r="BE33" s="7">
+        <f t="shared" ref="BE33:BE37" si="78">BB33-BD33</f>
+        <v>2</v>
+      </c>
+      <c r="BF33" s="9"/>
+      <c r="BG33" s="7"/>
+      <c r="BH33" s="7">
+        <f t="shared" ref="BH33:BH37" si="79">BE33-BG33</f>
+        <v>2</v>
+      </c>
+      <c r="BI33" s="9"/>
+      <c r="BJ33" s="7"/>
+      <c r="BK33" s="7">
+        <f t="shared" ref="BK33:BK37" si="80">BH33-BJ33</f>
+        <v>2</v>
+      </c>
+      <c r="BL33" s="9"/>
+      <c r="BM33" s="7"/>
+      <c r="BN33" s="7">
+        <f t="shared" ref="BN33:BN37" si="81">BK33-BM33</f>
+        <v>2</v>
+      </c>
+      <c r="BO33" s="9"/>
+      <c r="BP33" s="10">
+        <f t="shared" ref="BP33:BP37" si="82">H29+K33+N33+Q33+T33+W33+Z33+AC33+AF33+AI33+AL33+AO33+AR33+AU33+AX33+BA33+BD33+BG33+BJ33+BM33</f>
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="10">
+        <f t="shared" ref="BQ33:BQ37" si="83">G29-BP33</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="9"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="9"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="9"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AT34" s="9"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AW34" s="9"/>
+      <c r="AX34" s="7"/>
+      <c r="AY34" s="7">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="9"/>
+      <c r="BA34" s="7"/>
+      <c r="BB34" s="7">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BC34" s="9"/>
+      <c r="BD34" s="7"/>
+      <c r="BE34" s="7">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="BF34" s="9"/>
+      <c r="BG34" s="7"/>
+      <c r="BH34" s="7">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="BI34" s="9"/>
+      <c r="BJ34" s="7"/>
+      <c r="BK34" s="7">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BL34" s="9"/>
+      <c r="BM34" s="7"/>
+      <c r="BN34" s="7">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="BO34" s="9"/>
+      <c r="BP34" s="10">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BQ34" s="10">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="9"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="9"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="7">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="9"/>
+      <c r="AR35" s="7"/>
+      <c r="AS35" s="7">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AT35" s="9"/>
+      <c r="AU35" s="7"/>
+      <c r="AV35" s="7">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AW35" s="9"/>
+      <c r="AX35" s="7"/>
+      <c r="AY35" s="7">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="9"/>
+      <c r="BA35" s="7"/>
+      <c r="BB35" s="7">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BC35" s="9"/>
+      <c r="BD35" s="7"/>
+      <c r="BE35" s="7">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="BF35" s="9"/>
+      <c r="BG35" s="7"/>
+      <c r="BH35" s="7">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="BI35" s="9"/>
+      <c r="BJ35" s="7"/>
+      <c r="BK35" s="7">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BL35" s="9"/>
+      <c r="BM35" s="7"/>
+      <c r="BN35" s="7">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="BO35" s="9"/>
+      <c r="BP35" s="10">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BQ35" s="10">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="9"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="9"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="9"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="7">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="9"/>
+      <c r="AR36" s="7"/>
+      <c r="AS36" s="7">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AT36" s="9"/>
+      <c r="AU36" s="7"/>
+      <c r="AV36" s="7">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AW36" s="9"/>
+      <c r="AX36" s="7"/>
+      <c r="AY36" s="7">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="9"/>
+      <c r="BA36" s="7"/>
+      <c r="BB36" s="7">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BC36" s="9"/>
+      <c r="BD36" s="7"/>
+      <c r="BE36" s="7">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="BF36" s="9"/>
+      <c r="BG36" s="7"/>
+      <c r="BH36" s="7">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="BI36" s="9"/>
+      <c r="BJ36" s="7"/>
+      <c r="BK36" s="7">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BL36" s="9"/>
+      <c r="BM36" s="7"/>
+      <c r="BN36" s="7">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="BO36" s="9"/>
+      <c r="BP36" s="10">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BQ36" s="10">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="S37" s="9"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7">
+        <f t="shared" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="V37" s="9"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7">
+        <f t="shared" si="67"/>
+        <v>2</v>
+      </c>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7">
+        <f t="shared" si="69"/>
+        <v>2</v>
+      </c>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7">
+        <f t="shared" si="70"/>
+        <v>2</v>
+      </c>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7">
+        <f t="shared" si="71"/>
+        <v>2</v>
+      </c>
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="AN37" s="9"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="7">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="AQ37" s="9"/>
+      <c r="AR37" s="7"/>
+      <c r="AS37" s="7">
+        <f t="shared" si="74"/>
+        <v>2</v>
+      </c>
+      <c r="AT37" s="9"/>
+      <c r="AU37" s="7"/>
+      <c r="AV37" s="7">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="7"/>
+      <c r="AY37" s="7">
+        <f t="shared" si="76"/>
+        <v>2</v>
+      </c>
+      <c r="AZ37" s="9"/>
+      <c r="BA37" s="7"/>
+      <c r="BB37" s="7">
+        <f t="shared" si="77"/>
+        <v>2</v>
+      </c>
+      <c r="BC37" s="9"/>
+      <c r="BD37" s="7"/>
+      <c r="BE37" s="7">
+        <f t="shared" si="78"/>
+        <v>2</v>
+      </c>
+      <c r="BF37" s="9"/>
+      <c r="BG37" s="7"/>
+      <c r="BH37" s="7">
+        <f t="shared" si="79"/>
+        <v>2</v>
+      </c>
+      <c r="BI37" s="9"/>
+      <c r="BJ37" s="7"/>
+      <c r="BK37" s="7">
+        <f t="shared" si="80"/>
+        <v>2</v>
+      </c>
+      <c r="BL37" s="9"/>
+      <c r="BM37" s="7"/>
+      <c r="BN37" s="7">
+        <f t="shared" si="81"/>
+        <v>2</v>
+      </c>
+      <c r="BO37" s="9"/>
+      <c r="BP37" s="10">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BQ37" s="10">
+        <f t="shared" si="83"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BD4:BE4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -3362,17 +5779,8 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BD4:BE4"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
   <colBreaks count="4" manualBreakCount="4">

--- a/Documentacion/Sprint Backlog.xlsx
+++ b/Documentacion/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB5BA7C-1063-4C4E-9512-23DA505A77A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63FC773-73F8-46BE-9E00-BBC867C047C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Historias de Usuario'!$B:$F,'Historias de Usuario'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="102">
   <si>
     <t>Columna</t>
   </si>
@@ -303,6 +303,48 @@
   </si>
   <si>
     <t>Como un Administrador, necesito poder modificar roles de usuario, con la finalidad de ajustar los permisos según las necesidades del negocio.</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder eliminar roles de usuario, con la finalidad de mantener la estructura de roles actualizada.</t>
+  </si>
+  <si>
+    <t>HU010</t>
+  </si>
+  <si>
+    <t>HU011</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder crear cuentas de usuario, con la finalidad de gestionar el acceso al sistema.</t>
+  </si>
+  <si>
+    <t>HU012</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder modificar cuentas de usuario, con la finalidad de actualizar la información de los usuarios.</t>
+  </si>
+  <si>
+    <t>HU013</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder eliminar cuentas de usuario, con la finalidad de mantener el sistema actualizado y seguro.</t>
+  </si>
+  <si>
+    <t>Elaboracion de los diagramas de actividades.</t>
+  </si>
+  <si>
+    <t>HU014</t>
+  </si>
+  <si>
+    <t>Identificación de Procesos</t>
+  </si>
+  <si>
+    <t>Diseño de Actividades</t>
+  </si>
+  <si>
+    <t>Diagramación</t>
+  </si>
+  <si>
+    <t>Documentación</t>
   </si>
 </sst>
 </file>
@@ -806,13 +848,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BQ37"/>
+  <dimension ref="B1:BQ65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,97 +1257,97 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7">
-        <f t="shared" ref="R6:R21" si="2">O6-Q6</f>
+        <f t="shared" ref="R6:R13" si="2">O6-Q6</f>
         <v>2</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7">
-        <f t="shared" ref="U6:U21" si="3">R6-T6</f>
+        <f t="shared" ref="U6:U13" si="3">R6-T6</f>
         <v>2</v>
       </c>
       <c r="V6" s="9"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7">
-        <f t="shared" ref="X6:X21" si="4">U6-W6</f>
+        <f t="shared" ref="X6:X13" si="4">U6-W6</f>
         <v>2</v>
       </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7">
-        <f t="shared" ref="AA6:AA21" si="5">X6-Z6</f>
+        <f t="shared" ref="AA6:AA13" si="5">X6-Z6</f>
         <v>2</v>
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7">
-        <f t="shared" ref="AD6:AD21" si="6">AA6-AC6</f>
+        <f t="shared" ref="AD6:AD13" si="6">AA6-AC6</f>
         <v>2</v>
       </c>
       <c r="AE6" s="9"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7">
-        <f t="shared" ref="AG6:AG21" si="7">AD6-AF6</f>
+        <f t="shared" ref="AG6:AG13" si="7">AD6-AF6</f>
         <v>2</v>
       </c>
       <c r="AH6" s="9"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7">
-        <f t="shared" ref="AJ6:AJ21" si="8">AG6-AI6</f>
+        <f t="shared" ref="AJ6:AJ13" si="8">AG6-AI6</f>
         <v>2</v>
       </c>
       <c r="AK6" s="9"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7">
-        <f t="shared" ref="AM6:AM21" si="9">AJ6-AL6</f>
+        <f t="shared" ref="AM6:AM13" si="9">AJ6-AL6</f>
         <v>2</v>
       </c>
       <c r="AN6" s="9"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7">
-        <f t="shared" ref="AP6:AP21" si="10">AM6-AO6</f>
+        <f t="shared" ref="AP6:AP13" si="10">AM6-AO6</f>
         <v>2</v>
       </c>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7">
-        <f t="shared" ref="AS6:AS21" si="11">AP6-AR6</f>
+        <f t="shared" ref="AS6:AS13" si="11">AP6-AR6</f>
         <v>2</v>
       </c>
       <c r="AT6" s="9"/>
       <c r="AU6" s="7"/>
       <c r="AV6" s="7">
-        <f t="shared" ref="AV6:AV21" si="12">AS6-AU6</f>
+        <f t="shared" ref="AV6:AV13" si="12">AS6-AU6</f>
         <v>2</v>
       </c>
       <c r="AW6" s="9"/>
       <c r="AX6" s="7"/>
       <c r="AY6" s="7">
-        <f t="shared" ref="AY6:AY21" si="13">AV6-AX6</f>
+        <f t="shared" ref="AY6:AY13" si="13">AV6-AX6</f>
         <v>2</v>
       </c>
       <c r="AZ6" s="9"/>
       <c r="BA6" s="7"/>
       <c r="BB6" s="7">
-        <f t="shared" ref="BB6:BB21" si="14">AY6-BA6</f>
+        <f t="shared" ref="BB6:BB13" si="14">AY6-BA6</f>
         <v>2</v>
       </c>
       <c r="BC6" s="9"/>
       <c r="BD6" s="7"/>
       <c r="BE6" s="7">
-        <f t="shared" ref="BE6:BE21" si="15">BB6-BD6</f>
+        <f t="shared" ref="BE6:BE13" si="15">BB6-BD6</f>
         <v>2</v>
       </c>
       <c r="BF6" s="9"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7">
-        <f t="shared" ref="BH6:BH21" si="16">BE6-BG6</f>
+        <f t="shared" ref="BH6:BH13" si="16">BE6-BG6</f>
         <v>2</v>
       </c>
       <c r="BI6" s="9"/>
       <c r="BJ6" s="7"/>
       <c r="BK6" s="7">
-        <f t="shared" ref="BK6:BK21" si="17">BH6-BJ6</f>
+        <f t="shared" ref="BK6:BK13" si="17">BH6-BJ6</f>
         <v>2</v>
       </c>
       <c r="BL6" s="9"/>
@@ -1453,7 +1495,7 @@
       <c r="BL7" s="9"/>
       <c r="BM7" s="7"/>
       <c r="BN7" s="7">
-        <f t="shared" ref="BN7:BN21" si="19">BK7-BM7</f>
+        <f t="shared" ref="BN7:BN13" si="19">BK7-BM7</f>
         <v>0</v>
       </c>
       <c r="BO7" s="9"/>
@@ -2458,11 +2500,11 @@
       </c>
       <c r="BO14" s="9"/>
       <c r="BP14" s="10">
-        <f t="shared" ref="BP14:BP21" si="39">H10+K14+N14+Q14+T14+W14+Z14+AC14+AF14+AI14+AL14+AO14+AR14+AU14+AX14+BA14+BD14+BG14+BJ14+BM14</f>
+        <f t="shared" ref="BP14:BP17" si="39">H10+K14+N14+Q14+T14+W14+Z14+AC14+AF14+AI14+AL14+AO14+AR14+AU14+AX14+BA14+BD14+BG14+BJ14+BM14</f>
         <v>0</v>
       </c>
       <c r="BQ14" s="10">
-        <f t="shared" ref="BQ14:BQ21" si="40">G10-BP14</f>
+        <f t="shared" ref="BQ14:BQ17" si="40">G10-BP14</f>
         <v>2</v>
       </c>
     </row>
@@ -2750,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>64</v>
       </c>
@@ -3629,7 +3671,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7">
-        <f t="shared" ref="I18:I37" si="60">G23-H23</f>
+        <f t="shared" ref="I23:I37" si="60">G23-H23</f>
         <v>0</v>
       </c>
       <c r="J23" s="9"/>
@@ -3931,7 +3973,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7">
-        <f t="shared" ref="O18:O32" si="61">L25-N25</f>
+        <f t="shared" ref="O25:O32" si="61">L25-N25</f>
         <v>0</v>
       </c>
       <c r="P25" s="9"/>
@@ -4067,7 +4109,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7">
-        <f t="shared" ref="L18:L32" si="62">I22-K26</f>
+        <f t="shared" ref="L26:L32" si="62">I22-K26</f>
         <v>0</v>
       </c>
       <c r="M26" s="9"/>
@@ -5620,17 +5662,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+    <row r="37" spans="2:69" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="4">
+        <v>2</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="7"/>
@@ -5756,18 +5810,3954 @@
         <v>2</v>
       </c>
     </row>
+    <row r="38" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7">
+        <f t="shared" ref="I38:I65" si="84">G38-H38</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7">
+        <f t="shared" ref="L38:L65" si="85">I34-K38</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7">
+        <f t="shared" ref="O38:O65" si="86">L38-N38</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7">
+        <f t="shared" ref="R38:R65" si="87">O38-Q38</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="9"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7">
+        <f t="shared" ref="U38:U65" si="88">R38-T38</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="9"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7">
+        <f t="shared" ref="X38:X65" si="89">U38-W38</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7">
+        <f t="shared" ref="AA38:AA65" si="90">X38-Z38</f>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7">
+        <f t="shared" ref="AD38:AD65" si="91">AA38-AC38</f>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7">
+        <f t="shared" ref="AG38:AG65" si="92">AD38-AF38</f>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7">
+        <f t="shared" ref="AJ38:AJ65" si="93">AG38-AI38</f>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7">
+        <f t="shared" ref="AM38:AM65" si="94">AJ38-AL38</f>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="7">
+        <f t="shared" ref="AP38:AP65" si="95">AM38-AO38</f>
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="9"/>
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="7">
+        <f t="shared" ref="AS38:AS65" si="96">AP38-AR38</f>
+        <v>0</v>
+      </c>
+      <c r="AT38" s="9"/>
+      <c r="AU38" s="7"/>
+      <c r="AV38" s="7">
+        <f t="shared" ref="AV38:AV65" si="97">AS38-AU38</f>
+        <v>0</v>
+      </c>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="7"/>
+      <c r="AY38" s="7">
+        <f t="shared" ref="AY38:AY65" si="98">AV38-AX38</f>
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="9"/>
+      <c r="BA38" s="7"/>
+      <c r="BB38" s="7">
+        <f t="shared" ref="BB38:BB65" si="99">AY38-BA38</f>
+        <v>0</v>
+      </c>
+      <c r="BC38" s="9"/>
+      <c r="BD38" s="7"/>
+      <c r="BE38" s="7">
+        <f t="shared" ref="BE38:BE65" si="100">BB38-BD38</f>
+        <v>0</v>
+      </c>
+      <c r="BF38" s="9"/>
+      <c r="BG38" s="7"/>
+      <c r="BH38" s="7">
+        <f t="shared" ref="BH38:BH65" si="101">BE38-BG38</f>
+        <v>0</v>
+      </c>
+      <c r="BI38" s="9"/>
+      <c r="BJ38" s="7"/>
+      <c r="BK38" s="7">
+        <f t="shared" ref="BK38:BK65" si="102">BH38-BJ38</f>
+        <v>0</v>
+      </c>
+      <c r="BL38" s="9"/>
+      <c r="BM38" s="7"/>
+      <c r="BN38" s="7">
+        <f t="shared" ref="BN38:BN65" si="103">BK38-BM38</f>
+        <v>0</v>
+      </c>
+      <c r="BO38" s="9"/>
+      <c r="BP38" s="10">
+        <f t="shared" ref="BP38:BP65" si="104">H34+K38+N38+Q38+T38+W38+Z38+AC38+AF38+AI38+AL38+AO38+AR38+AU38+AX38+BA38+BD38+BG38+BJ38+BM38</f>
+        <v>0</v>
+      </c>
+      <c r="BQ38" s="10">
+        <f t="shared" ref="BQ38:BQ65" si="105">G34-BP38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="9"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="9"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN39" s="9"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="9"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="7"/>
+      <c r="AV39" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="7"/>
+      <c r="AY39" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="9"/>
+      <c r="BA39" s="7"/>
+      <c r="BB39" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC39" s="9"/>
+      <c r="BD39" s="7"/>
+      <c r="BE39" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF39" s="9"/>
+      <c r="BG39" s="7"/>
+      <c r="BH39" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI39" s="9"/>
+      <c r="BJ39" s="7"/>
+      <c r="BK39" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL39" s="9"/>
+      <c r="BM39" s="7"/>
+      <c r="BN39" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO39" s="9"/>
+      <c r="BP39" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ39" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="9"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="9"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="9"/>
+      <c r="AR40" s="7"/>
+      <c r="AS40" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT40" s="9"/>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW40" s="9"/>
+      <c r="AX40" s="7"/>
+      <c r="AY40" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="9"/>
+      <c r="BA40" s="7"/>
+      <c r="BB40" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC40" s="9"/>
+      <c r="BD40" s="7"/>
+      <c r="BE40" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF40" s="9"/>
+      <c r="BG40" s="7"/>
+      <c r="BH40" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI40" s="9"/>
+      <c r="BJ40" s="7"/>
+      <c r="BK40" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL40" s="9"/>
+      <c r="BM40" s="7"/>
+      <c r="BN40" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO40" s="9"/>
+      <c r="BP40" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ40" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:69" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="4">
+        <v>2</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7">
+        <f t="shared" si="84"/>
+        <v>2</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7">
+        <f t="shared" si="87"/>
+        <v>2</v>
+      </c>
+      <c r="S41" s="9"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7">
+        <f t="shared" si="88"/>
+        <v>2</v>
+      </c>
+      <c r="V41" s="9"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7">
+        <f t="shared" si="90"/>
+        <v>2</v>
+      </c>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7">
+        <f t="shared" si="91"/>
+        <v>2</v>
+      </c>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="AH41" s="9"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7">
+        <f t="shared" si="93"/>
+        <v>2</v>
+      </c>
+      <c r="AK41" s="9"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7">
+        <f t="shared" si="94"/>
+        <v>2</v>
+      </c>
+      <c r="AN41" s="9"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7">
+        <f t="shared" si="95"/>
+        <v>2</v>
+      </c>
+      <c r="AQ41" s="9"/>
+      <c r="AR41" s="7"/>
+      <c r="AS41" s="7">
+        <f t="shared" si="96"/>
+        <v>2</v>
+      </c>
+      <c r="AT41" s="9"/>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="7">
+        <f t="shared" si="97"/>
+        <v>2</v>
+      </c>
+      <c r="AW41" s="9"/>
+      <c r="AX41" s="7"/>
+      <c r="AY41" s="7">
+        <f t="shared" si="98"/>
+        <v>2</v>
+      </c>
+      <c r="AZ41" s="9"/>
+      <c r="BA41" s="7"/>
+      <c r="BB41" s="7">
+        <f t="shared" si="99"/>
+        <v>2</v>
+      </c>
+      <c r="BC41" s="9"/>
+      <c r="BD41" s="7"/>
+      <c r="BE41" s="7">
+        <f t="shared" si="100"/>
+        <v>2</v>
+      </c>
+      <c r="BF41" s="9"/>
+      <c r="BG41" s="7"/>
+      <c r="BH41" s="7">
+        <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="BI41" s="9"/>
+      <c r="BJ41" s="7"/>
+      <c r="BK41" s="7">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="BL41" s="9"/>
+      <c r="BM41" s="7"/>
+      <c r="BN41" s="7">
+        <f t="shared" si="103"/>
+        <v>2</v>
+      </c>
+      <c r="BO41" s="9"/>
+      <c r="BP41" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ41" s="10">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="9"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="9"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="9"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="9"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN42" s="9"/>
+      <c r="AO42" s="7"/>
+      <c r="AP42" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="9"/>
+      <c r="AR42" s="7"/>
+      <c r="AS42" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT42" s="9"/>
+      <c r="AU42" s="7"/>
+      <c r="AV42" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW42" s="9"/>
+      <c r="AX42" s="7"/>
+      <c r="AY42" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="9"/>
+      <c r="BA42" s="7"/>
+      <c r="BB42" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC42" s="9"/>
+      <c r="BD42" s="7"/>
+      <c r="BE42" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF42" s="9"/>
+      <c r="BG42" s="7"/>
+      <c r="BH42" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI42" s="9"/>
+      <c r="BJ42" s="7"/>
+      <c r="BK42" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL42" s="9"/>
+      <c r="BM42" s="7"/>
+      <c r="BN42" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO42" s="9"/>
+      <c r="BP42" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ42" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="9"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="9"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="9"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="9"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN43" s="9"/>
+      <c r="AO43" s="7"/>
+      <c r="AP43" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="9"/>
+      <c r="AR43" s="7"/>
+      <c r="AS43" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT43" s="9"/>
+      <c r="AU43" s="7"/>
+      <c r="AV43" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW43" s="9"/>
+      <c r="AX43" s="7"/>
+      <c r="AY43" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="9"/>
+      <c r="BA43" s="7"/>
+      <c r="BB43" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC43" s="9"/>
+      <c r="BD43" s="7"/>
+      <c r="BE43" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF43" s="9"/>
+      <c r="BG43" s="7"/>
+      <c r="BH43" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI43" s="9"/>
+      <c r="BJ43" s="7"/>
+      <c r="BK43" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL43" s="9"/>
+      <c r="BM43" s="7"/>
+      <c r="BN43" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO43" s="9"/>
+      <c r="BP43" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ43" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="9"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="9"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="9"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="9"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN44" s="9"/>
+      <c r="AO44" s="7"/>
+      <c r="AP44" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="9"/>
+      <c r="AR44" s="7"/>
+      <c r="AS44" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT44" s="9"/>
+      <c r="AU44" s="7"/>
+      <c r="AV44" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW44" s="9"/>
+      <c r="AX44" s="7"/>
+      <c r="AY44" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="9"/>
+      <c r="BA44" s="7"/>
+      <c r="BB44" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC44" s="9"/>
+      <c r="BD44" s="7"/>
+      <c r="BE44" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF44" s="9"/>
+      <c r="BG44" s="7"/>
+      <c r="BH44" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI44" s="9"/>
+      <c r="BJ44" s="7"/>
+      <c r="BK44" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL44" s="9"/>
+      <c r="BM44" s="7"/>
+      <c r="BN44" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO44" s="9"/>
+      <c r="BP44" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ44" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:69" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="4">
+        <v>2</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7">
+        <f t="shared" si="84"/>
+        <v>2</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7">
+        <f t="shared" si="87"/>
+        <v>2</v>
+      </c>
+      <c r="S45" s="9"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7">
+        <f t="shared" si="88"/>
+        <v>2</v>
+      </c>
+      <c r="V45" s="9"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7">
+        <f t="shared" si="90"/>
+        <v>2</v>
+      </c>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7">
+        <f t="shared" si="91"/>
+        <v>2</v>
+      </c>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7">
+        <f t="shared" si="93"/>
+        <v>2</v>
+      </c>
+      <c r="AK45" s="9"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7">
+        <f t="shared" si="94"/>
+        <v>2</v>
+      </c>
+      <c r="AN45" s="9"/>
+      <c r="AO45" s="7"/>
+      <c r="AP45" s="7">
+        <f t="shared" si="95"/>
+        <v>2</v>
+      </c>
+      <c r="AQ45" s="9"/>
+      <c r="AR45" s="7"/>
+      <c r="AS45" s="7">
+        <f t="shared" si="96"/>
+        <v>2</v>
+      </c>
+      <c r="AT45" s="9"/>
+      <c r="AU45" s="7"/>
+      <c r="AV45" s="7">
+        <f t="shared" si="97"/>
+        <v>2</v>
+      </c>
+      <c r="AW45" s="9"/>
+      <c r="AX45" s="7"/>
+      <c r="AY45" s="7">
+        <f t="shared" si="98"/>
+        <v>2</v>
+      </c>
+      <c r="AZ45" s="9"/>
+      <c r="BA45" s="7"/>
+      <c r="BB45" s="7">
+        <f t="shared" si="99"/>
+        <v>2</v>
+      </c>
+      <c r="BC45" s="9"/>
+      <c r="BD45" s="7"/>
+      <c r="BE45" s="7">
+        <f t="shared" si="100"/>
+        <v>2</v>
+      </c>
+      <c r="BF45" s="9"/>
+      <c r="BG45" s="7"/>
+      <c r="BH45" s="7">
+        <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="BI45" s="9"/>
+      <c r="BJ45" s="7"/>
+      <c r="BK45" s="7">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="BL45" s="9"/>
+      <c r="BM45" s="7"/>
+      <c r="BN45" s="7">
+        <f t="shared" si="103"/>
+        <v>2</v>
+      </c>
+      <c r="BO45" s="9"/>
+      <c r="BP45" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ45" s="10">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="9"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="9"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK46" s="9"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN46" s="9"/>
+      <c r="AO46" s="7"/>
+      <c r="AP46" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="9"/>
+      <c r="AR46" s="7"/>
+      <c r="AS46" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT46" s="9"/>
+      <c r="AU46" s="7"/>
+      <c r="AV46" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW46" s="9"/>
+      <c r="AX46" s="7"/>
+      <c r="AY46" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="9"/>
+      <c r="BA46" s="7"/>
+      <c r="BB46" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC46" s="9"/>
+      <c r="BD46" s="7"/>
+      <c r="BE46" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF46" s="9"/>
+      <c r="BG46" s="7"/>
+      <c r="BH46" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI46" s="9"/>
+      <c r="BJ46" s="7"/>
+      <c r="BK46" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL46" s="9"/>
+      <c r="BM46" s="7"/>
+      <c r="BN46" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO46" s="9"/>
+      <c r="BP46" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ46" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="9"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="9"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN47" s="9"/>
+      <c r="AO47" s="7"/>
+      <c r="AP47" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="9"/>
+      <c r="AR47" s="7"/>
+      <c r="AS47" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT47" s="9"/>
+      <c r="AU47" s="7"/>
+      <c r="AV47" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW47" s="9"/>
+      <c r="AX47" s="7"/>
+      <c r="AY47" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ47" s="9"/>
+      <c r="BA47" s="7"/>
+      <c r="BB47" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC47" s="9"/>
+      <c r="BD47" s="7"/>
+      <c r="BE47" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF47" s="9"/>
+      <c r="BG47" s="7"/>
+      <c r="BH47" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI47" s="9"/>
+      <c r="BJ47" s="7"/>
+      <c r="BK47" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL47" s="9"/>
+      <c r="BM47" s="7"/>
+      <c r="BN47" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO47" s="9"/>
+      <c r="BP47" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ47" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="9"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="9"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="9"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN48" s="9"/>
+      <c r="AO48" s="7"/>
+      <c r="AP48" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="9"/>
+      <c r="AR48" s="7"/>
+      <c r="AS48" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT48" s="9"/>
+      <c r="AU48" s="7"/>
+      <c r="AV48" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW48" s="9"/>
+      <c r="AX48" s="7"/>
+      <c r="AY48" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ48" s="9"/>
+      <c r="BA48" s="7"/>
+      <c r="BB48" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC48" s="9"/>
+      <c r="BD48" s="7"/>
+      <c r="BE48" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF48" s="9"/>
+      <c r="BG48" s="7"/>
+      <c r="BH48" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI48" s="9"/>
+      <c r="BJ48" s="7"/>
+      <c r="BK48" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL48" s="9"/>
+      <c r="BM48" s="7"/>
+      <c r="BN48" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO48" s="9"/>
+      <c r="BP48" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ48" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:69" ht="45" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="4">
+        <v>2</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7">
+        <f t="shared" si="84"/>
+        <v>2</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="M49" s="9"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7">
+        <f t="shared" si="87"/>
+        <v>2</v>
+      </c>
+      <c r="S49" s="9"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7">
+        <f t="shared" si="88"/>
+        <v>2</v>
+      </c>
+      <c r="V49" s="9"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7">
+        <f t="shared" si="90"/>
+        <v>2</v>
+      </c>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7">
+        <f t="shared" si="91"/>
+        <v>2</v>
+      </c>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7">
+        <f t="shared" si="93"/>
+        <v>2</v>
+      </c>
+      <c r="AK49" s="9"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7">
+        <f t="shared" si="94"/>
+        <v>2</v>
+      </c>
+      <c r="AN49" s="9"/>
+      <c r="AO49" s="7"/>
+      <c r="AP49" s="7">
+        <f t="shared" si="95"/>
+        <v>2</v>
+      </c>
+      <c r="AQ49" s="9"/>
+      <c r="AR49" s="7"/>
+      <c r="AS49" s="7">
+        <f t="shared" si="96"/>
+        <v>2</v>
+      </c>
+      <c r="AT49" s="9"/>
+      <c r="AU49" s="7"/>
+      <c r="AV49" s="7">
+        <f t="shared" si="97"/>
+        <v>2</v>
+      </c>
+      <c r="AW49" s="9"/>
+      <c r="AX49" s="7"/>
+      <c r="AY49" s="7">
+        <f t="shared" si="98"/>
+        <v>2</v>
+      </c>
+      <c r="AZ49" s="9"/>
+      <c r="BA49" s="7"/>
+      <c r="BB49" s="7">
+        <f t="shared" si="99"/>
+        <v>2</v>
+      </c>
+      <c r="BC49" s="9"/>
+      <c r="BD49" s="7"/>
+      <c r="BE49" s="7">
+        <f t="shared" si="100"/>
+        <v>2</v>
+      </c>
+      <c r="BF49" s="9"/>
+      <c r="BG49" s="7"/>
+      <c r="BH49" s="7">
+        <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="BI49" s="9"/>
+      <c r="BJ49" s="7"/>
+      <c r="BK49" s="7">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="BL49" s="9"/>
+      <c r="BM49" s="7"/>
+      <c r="BN49" s="7">
+        <f t="shared" si="103"/>
+        <v>2</v>
+      </c>
+      <c r="BO49" s="9"/>
+      <c r="BP49" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ49" s="10">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="9"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="9"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK50" s="9"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN50" s="9"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="9"/>
+      <c r="AR50" s="7"/>
+      <c r="AS50" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT50" s="9"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW50" s="9"/>
+      <c r="AX50" s="7"/>
+      <c r="AY50" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ50" s="9"/>
+      <c r="BA50" s="7"/>
+      <c r="BB50" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC50" s="9"/>
+      <c r="BD50" s="7"/>
+      <c r="BE50" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF50" s="9"/>
+      <c r="BG50" s="7"/>
+      <c r="BH50" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI50" s="9"/>
+      <c r="BJ50" s="7"/>
+      <c r="BK50" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL50" s="9"/>
+      <c r="BM50" s="7"/>
+      <c r="BN50" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO50" s="9"/>
+      <c r="BP50" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ50" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="9"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="9"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="9"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK51" s="9"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN51" s="9"/>
+      <c r="AO51" s="7"/>
+      <c r="AP51" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="9"/>
+      <c r="AR51" s="7"/>
+      <c r="AS51" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT51" s="9"/>
+      <c r="AU51" s="7"/>
+      <c r="AV51" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW51" s="9"/>
+      <c r="AX51" s="7"/>
+      <c r="AY51" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ51" s="9"/>
+      <c r="BA51" s="7"/>
+      <c r="BB51" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC51" s="9"/>
+      <c r="BD51" s="7"/>
+      <c r="BE51" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF51" s="9"/>
+      <c r="BG51" s="7"/>
+      <c r="BH51" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI51" s="9"/>
+      <c r="BJ51" s="7"/>
+      <c r="BK51" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL51" s="9"/>
+      <c r="BM51" s="7"/>
+      <c r="BN51" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO51" s="9"/>
+      <c r="BP51" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ51" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="9"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="9"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="9"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="9"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="9"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN52" s="9"/>
+      <c r="AO52" s="7"/>
+      <c r="AP52" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="9"/>
+      <c r="AR52" s="7"/>
+      <c r="AS52" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT52" s="9"/>
+      <c r="AU52" s="7"/>
+      <c r="AV52" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW52" s="9"/>
+      <c r="AX52" s="7"/>
+      <c r="AY52" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="9"/>
+      <c r="BA52" s="7"/>
+      <c r="BB52" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC52" s="9"/>
+      <c r="BD52" s="7"/>
+      <c r="BE52" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF52" s="9"/>
+      <c r="BG52" s="7"/>
+      <c r="BH52" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI52" s="9"/>
+      <c r="BJ52" s="7"/>
+      <c r="BK52" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL52" s="9"/>
+      <c r="BM52" s="7"/>
+      <c r="BN52" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO52" s="9"/>
+      <c r="BP52" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ52" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="4">
+        <v>2</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7">
+        <f t="shared" si="84"/>
+        <v>2</v>
+      </c>
+      <c r="J53" s="9"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="M53" s="9"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7">
+        <f t="shared" si="87"/>
+        <v>2</v>
+      </c>
+      <c r="S53" s="9"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7">
+        <f t="shared" si="88"/>
+        <v>2</v>
+      </c>
+      <c r="V53" s="9"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7">
+        <f t="shared" si="90"/>
+        <v>2</v>
+      </c>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7">
+        <f t="shared" si="91"/>
+        <v>2</v>
+      </c>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7">
+        <f t="shared" si="93"/>
+        <v>2</v>
+      </c>
+      <c r="AK53" s="9"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7">
+        <f t="shared" si="94"/>
+        <v>2</v>
+      </c>
+      <c r="AN53" s="9"/>
+      <c r="AO53" s="7"/>
+      <c r="AP53" s="7">
+        <f t="shared" si="95"/>
+        <v>2</v>
+      </c>
+      <c r="AQ53" s="9"/>
+      <c r="AR53" s="7"/>
+      <c r="AS53" s="7">
+        <f t="shared" si="96"/>
+        <v>2</v>
+      </c>
+      <c r="AT53" s="9"/>
+      <c r="AU53" s="7"/>
+      <c r="AV53" s="7">
+        <f t="shared" si="97"/>
+        <v>2</v>
+      </c>
+      <c r="AW53" s="9"/>
+      <c r="AX53" s="7"/>
+      <c r="AY53" s="7">
+        <f t="shared" si="98"/>
+        <v>2</v>
+      </c>
+      <c r="AZ53" s="9"/>
+      <c r="BA53" s="7"/>
+      <c r="BB53" s="7">
+        <f t="shared" si="99"/>
+        <v>2</v>
+      </c>
+      <c r="BC53" s="9"/>
+      <c r="BD53" s="7"/>
+      <c r="BE53" s="7">
+        <f t="shared" si="100"/>
+        <v>2</v>
+      </c>
+      <c r="BF53" s="9"/>
+      <c r="BG53" s="7"/>
+      <c r="BH53" s="7">
+        <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="BI53" s="9"/>
+      <c r="BJ53" s="7"/>
+      <c r="BK53" s="7">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="BL53" s="9"/>
+      <c r="BM53" s="7"/>
+      <c r="BN53" s="7">
+        <f t="shared" si="103"/>
+        <v>2</v>
+      </c>
+      <c r="BO53" s="9"/>
+      <c r="BP53" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ53" s="10">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="9"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="9"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="9"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="9"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH54" s="9"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK54" s="9"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN54" s="9"/>
+      <c r="AO54" s="7"/>
+      <c r="AP54" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="9"/>
+      <c r="AR54" s="7"/>
+      <c r="AS54" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT54" s="9"/>
+      <c r="AU54" s="7"/>
+      <c r="AV54" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW54" s="9"/>
+      <c r="AX54" s="7"/>
+      <c r="AY54" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="9"/>
+      <c r="BA54" s="7"/>
+      <c r="BB54" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC54" s="9"/>
+      <c r="BD54" s="7"/>
+      <c r="BE54" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF54" s="9"/>
+      <c r="BG54" s="7"/>
+      <c r="BH54" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI54" s="9"/>
+      <c r="BJ54" s="7"/>
+      <c r="BK54" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL54" s="9"/>
+      <c r="BM54" s="7"/>
+      <c r="BN54" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO54" s="9"/>
+      <c r="BP54" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ54" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="9"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="9"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="9"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH55" s="9"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK55" s="9"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN55" s="9"/>
+      <c r="AO55" s="7"/>
+      <c r="AP55" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="9"/>
+      <c r="AR55" s="7"/>
+      <c r="AS55" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT55" s="9"/>
+      <c r="AU55" s="7"/>
+      <c r="AV55" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW55" s="9"/>
+      <c r="AX55" s="7"/>
+      <c r="AY55" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ55" s="9"/>
+      <c r="BA55" s="7"/>
+      <c r="BB55" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC55" s="9"/>
+      <c r="BD55" s="7"/>
+      <c r="BE55" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF55" s="9"/>
+      <c r="BG55" s="7"/>
+      <c r="BH55" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI55" s="9"/>
+      <c r="BJ55" s="7"/>
+      <c r="BK55" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL55" s="9"/>
+      <c r="BM55" s="7"/>
+      <c r="BN55" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO55" s="9"/>
+      <c r="BP55" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ55" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="9"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="9"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="9"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="9"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN56" s="9"/>
+      <c r="AO56" s="7"/>
+      <c r="AP56" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="9"/>
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT56" s="9"/>
+      <c r="AU56" s="7"/>
+      <c r="AV56" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW56" s="9"/>
+      <c r="AX56" s="7"/>
+      <c r="AY56" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="9"/>
+      <c r="BA56" s="7"/>
+      <c r="BB56" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC56" s="9"/>
+      <c r="BD56" s="7"/>
+      <c r="BE56" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF56" s="9"/>
+      <c r="BG56" s="7"/>
+      <c r="BH56" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI56" s="9"/>
+      <c r="BJ56" s="7"/>
+      <c r="BK56" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL56" s="9"/>
+      <c r="BM56" s="7"/>
+      <c r="BN56" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO56" s="9"/>
+      <c r="BP56" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ56" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7">
+        <f t="shared" si="87"/>
+        <v>2</v>
+      </c>
+      <c r="S57" s="9"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7">
+        <f t="shared" si="88"/>
+        <v>2</v>
+      </c>
+      <c r="V57" s="9"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7">
+        <f t="shared" si="90"/>
+        <v>2</v>
+      </c>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7">
+        <f t="shared" si="91"/>
+        <v>2</v>
+      </c>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7">
+        <f t="shared" si="93"/>
+        <v>2</v>
+      </c>
+      <c r="AK57" s="9"/>
+      <c r="AL57" s="7"/>
+      <c r="AM57" s="7">
+        <f t="shared" si="94"/>
+        <v>2</v>
+      </c>
+      <c r="AN57" s="9"/>
+      <c r="AO57" s="7"/>
+      <c r="AP57" s="7">
+        <f t="shared" si="95"/>
+        <v>2</v>
+      </c>
+      <c r="AQ57" s="9"/>
+      <c r="AR57" s="7"/>
+      <c r="AS57" s="7">
+        <f t="shared" si="96"/>
+        <v>2</v>
+      </c>
+      <c r="AT57" s="9"/>
+      <c r="AU57" s="7"/>
+      <c r="AV57" s="7">
+        <f t="shared" si="97"/>
+        <v>2</v>
+      </c>
+      <c r="AW57" s="9"/>
+      <c r="AX57" s="7"/>
+      <c r="AY57" s="7">
+        <f t="shared" si="98"/>
+        <v>2</v>
+      </c>
+      <c r="AZ57" s="9"/>
+      <c r="BA57" s="7"/>
+      <c r="BB57" s="7">
+        <f t="shared" si="99"/>
+        <v>2</v>
+      </c>
+      <c r="BC57" s="9"/>
+      <c r="BD57" s="7"/>
+      <c r="BE57" s="7">
+        <f t="shared" si="100"/>
+        <v>2</v>
+      </c>
+      <c r="BF57" s="9"/>
+      <c r="BG57" s="7"/>
+      <c r="BH57" s="7">
+        <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="BI57" s="9"/>
+      <c r="BJ57" s="7"/>
+      <c r="BK57" s="7">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="BL57" s="9"/>
+      <c r="BM57" s="7"/>
+      <c r="BN57" s="7">
+        <f t="shared" si="103"/>
+        <v>2</v>
+      </c>
+      <c r="BO57" s="9"/>
+      <c r="BP57" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ57" s="10">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="9"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="9"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="9"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="9"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK58" s="9"/>
+      <c r="AL58" s="7"/>
+      <c r="AM58" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN58" s="9"/>
+      <c r="AO58" s="7"/>
+      <c r="AP58" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="9"/>
+      <c r="AR58" s="7"/>
+      <c r="AS58" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT58" s="9"/>
+      <c r="AU58" s="7"/>
+      <c r="AV58" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW58" s="9"/>
+      <c r="AX58" s="7"/>
+      <c r="AY58" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ58" s="9"/>
+      <c r="BA58" s="7"/>
+      <c r="BB58" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC58" s="9"/>
+      <c r="BD58" s="7"/>
+      <c r="BE58" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF58" s="9"/>
+      <c r="BG58" s="7"/>
+      <c r="BH58" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI58" s="9"/>
+      <c r="BJ58" s="7"/>
+      <c r="BK58" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL58" s="9"/>
+      <c r="BM58" s="7"/>
+      <c r="BN58" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO58" s="9"/>
+      <c r="BP58" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ58" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="9"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="9"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="9"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="9"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH59" s="9"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK59" s="9"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN59" s="9"/>
+      <c r="AO59" s="7"/>
+      <c r="AP59" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="9"/>
+      <c r="AR59" s="7"/>
+      <c r="AS59" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT59" s="9"/>
+      <c r="AU59" s="7"/>
+      <c r="AV59" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW59" s="9"/>
+      <c r="AX59" s="7"/>
+      <c r="AY59" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ59" s="9"/>
+      <c r="BA59" s="7"/>
+      <c r="BB59" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC59" s="9"/>
+      <c r="BD59" s="7"/>
+      <c r="BE59" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF59" s="9"/>
+      <c r="BG59" s="7"/>
+      <c r="BH59" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI59" s="9"/>
+      <c r="BJ59" s="7"/>
+      <c r="BK59" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL59" s="9"/>
+      <c r="BM59" s="7"/>
+      <c r="BN59" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO59" s="9"/>
+      <c r="BP59" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ59" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="9"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="9"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="9"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="9"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE60" s="9"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH60" s="9"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK60" s="9"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN60" s="9"/>
+      <c r="AO60" s="7"/>
+      <c r="AP60" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="9"/>
+      <c r="AR60" s="7"/>
+      <c r="AS60" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT60" s="9"/>
+      <c r="AU60" s="7"/>
+      <c r="AV60" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW60" s="9"/>
+      <c r="AX60" s="7"/>
+      <c r="AY60" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ60" s="9"/>
+      <c r="BA60" s="7"/>
+      <c r="BB60" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC60" s="9"/>
+      <c r="BD60" s="7"/>
+      <c r="BE60" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF60" s="9"/>
+      <c r="BG60" s="7"/>
+      <c r="BH60" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI60" s="9"/>
+      <c r="BJ60" s="7"/>
+      <c r="BK60" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL60" s="9"/>
+      <c r="BM60" s="7"/>
+      <c r="BN60" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO60" s="9"/>
+      <c r="BP60" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ60" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="9"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="9"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="9"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="9"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN61" s="9"/>
+      <c r="AO61" s="7"/>
+      <c r="AP61" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="9"/>
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT61" s="9"/>
+      <c r="AU61" s="7"/>
+      <c r="AV61" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW61" s="9"/>
+      <c r="AX61" s="7"/>
+      <c r="AY61" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ61" s="9"/>
+      <c r="BA61" s="7"/>
+      <c r="BB61" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC61" s="9"/>
+      <c r="BD61" s="7"/>
+      <c r="BE61" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF61" s="9"/>
+      <c r="BG61" s="7"/>
+      <c r="BH61" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI61" s="9"/>
+      <c r="BJ61" s="7"/>
+      <c r="BK61" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL61" s="9"/>
+      <c r="BM61" s="7"/>
+      <c r="BN61" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO61" s="9"/>
+      <c r="BP61" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ61" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="9"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="9"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="9"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V62" s="9"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH62" s="9"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK62" s="9"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN62" s="9"/>
+      <c r="AO62" s="7"/>
+      <c r="AP62" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="9"/>
+      <c r="AR62" s="7"/>
+      <c r="AS62" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT62" s="9"/>
+      <c r="AU62" s="7"/>
+      <c r="AV62" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW62" s="9"/>
+      <c r="AX62" s="7"/>
+      <c r="AY62" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ62" s="9"/>
+      <c r="BA62" s="7"/>
+      <c r="BB62" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC62" s="9"/>
+      <c r="BD62" s="7"/>
+      <c r="BE62" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF62" s="9"/>
+      <c r="BG62" s="7"/>
+      <c r="BH62" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI62" s="9"/>
+      <c r="BJ62" s="7"/>
+      <c r="BK62" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL62" s="9"/>
+      <c r="BM62" s="7"/>
+      <c r="BN62" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO62" s="9"/>
+      <c r="BP62" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ62" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="9"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="9"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="9"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="9"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="7"/>
+      <c r="AG63" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="7"/>
+      <c r="AJ63" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="7"/>
+      <c r="AM63" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN63" s="9"/>
+      <c r="AO63" s="7"/>
+      <c r="AP63" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="9"/>
+      <c r="AR63" s="7"/>
+      <c r="AS63" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT63" s="9"/>
+      <c r="AU63" s="7"/>
+      <c r="AV63" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW63" s="9"/>
+      <c r="AX63" s="7"/>
+      <c r="AY63" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ63" s="9"/>
+      <c r="BA63" s="7"/>
+      <c r="BB63" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC63" s="9"/>
+      <c r="BD63" s="7"/>
+      <c r="BE63" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF63" s="9"/>
+      <c r="BG63" s="7"/>
+      <c r="BH63" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI63" s="9"/>
+      <c r="BJ63" s="7"/>
+      <c r="BK63" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL63" s="9"/>
+      <c r="BM63" s="7"/>
+      <c r="BN63" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO63" s="9"/>
+      <c r="BP63" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ63" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="9"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="9"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="9"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH64" s="9"/>
+      <c r="AI64" s="7"/>
+      <c r="AJ64" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK64" s="9"/>
+      <c r="AL64" s="7"/>
+      <c r="AM64" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN64" s="9"/>
+      <c r="AO64" s="7"/>
+      <c r="AP64" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="9"/>
+      <c r="AR64" s="7"/>
+      <c r="AS64" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT64" s="9"/>
+      <c r="AU64" s="7"/>
+      <c r="AV64" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW64" s="9"/>
+      <c r="AX64" s="7"/>
+      <c r="AY64" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ64" s="9"/>
+      <c r="BA64" s="7"/>
+      <c r="BB64" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC64" s="9"/>
+      <c r="BD64" s="7"/>
+      <c r="BE64" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF64" s="9"/>
+      <c r="BG64" s="7"/>
+      <c r="BH64" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI64" s="9"/>
+      <c r="BJ64" s="7"/>
+      <c r="BK64" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL64" s="9"/>
+      <c r="BM64" s="7"/>
+      <c r="BN64" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO64" s="9"/>
+      <c r="BP64" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ64" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="9"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="9"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="9"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="9"/>
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AH65" s="9"/>
+      <c r="AI65" s="7"/>
+      <c r="AJ65" s="7">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK65" s="9"/>
+      <c r="AL65" s="7"/>
+      <c r="AM65" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AN65" s="9"/>
+      <c r="AO65" s="7"/>
+      <c r="AP65" s="7">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="9"/>
+      <c r="AR65" s="7"/>
+      <c r="AS65" s="7">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT65" s="9"/>
+      <c r="AU65" s="7"/>
+      <c r="AV65" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AW65" s="9"/>
+      <c r="AX65" s="7"/>
+      <c r="AY65" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AZ65" s="9"/>
+      <c r="BA65" s="7"/>
+      <c r="BB65" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC65" s="9"/>
+      <c r="BD65" s="7"/>
+      <c r="BE65" s="7">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BF65" s="9"/>
+      <c r="BG65" s="7"/>
+      <c r="BH65" s="7">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BI65" s="9"/>
+      <c r="BJ65" s="7"/>
+      <c r="BK65" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BL65" s="9"/>
+      <c r="BM65" s="7"/>
+      <c r="BN65" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BO65" s="9"/>
+      <c r="BP65" s="10">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BQ65" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BD4:BE4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -5779,6 +9769,16 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BD4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Documentacion/Sprint Backlog.xlsx
+++ b/Documentacion/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63FC773-73F8-46BE-9E00-BBC867C047C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A0EF25-BBCE-4840-8674-E1859FF1E978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="108">
   <si>
     <t>Columna</t>
   </si>
@@ -345,6 +345,24 @@
   </si>
   <si>
     <t>Documentación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como un Jefe de Planta, necesito registrar nuevos ítems en el inventario, con la finalidad de mantener actualizado el estado del inventario.	</t>
+  </si>
+  <si>
+    <t>HU015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como un Jefe de Planta, necesito modificar los ítems existentes en el inventario, con la finalidad de corregir errores o ajustar cantidades.	</t>
+  </si>
+  <si>
+    <t>HU016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como un Jefe de Planta, necesito eliminar ítems del inventario, con la finalidad de remover ítems que ya no son necesarios o están en exceso.	</t>
+  </si>
+  <si>
+    <t>HU017</t>
   </si>
 </sst>
 </file>
@@ -848,13 +866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BQ65"/>
+  <dimension ref="B1:BQ114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="CR57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8532,12 +8550,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="4"/>
+    <row r="57" spans="2:69" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G57" s="4"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7">
@@ -8671,9 +8699,15 @@
     <row r="58" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="4"/>
+      <c r="D58" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G58" s="4"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
@@ -8807,9 +8841,15 @@
     <row r="59" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="4"/>
+      <c r="D59" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G59" s="4"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7">
@@ -8943,9 +8983,15 @@
     <row r="60" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="4"/>
+      <c r="D60" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G60" s="4"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7">
@@ -9076,12 +9122,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="4"/>
+    <row r="61" spans="2:69" ht="45" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G61" s="4"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7">
@@ -9215,9 +9271,15 @@
     <row r="62" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="4"/>
+      <c r="D62" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G62" s="4"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7">
@@ -9351,9 +9413,15 @@
     <row r="63" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="4"/>
+      <c r="D63" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G63" s="4"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7">
@@ -9487,9 +9555,15 @@
     <row r="64" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="4"/>
+      <c r="D64" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G64" s="4"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7">
@@ -9620,12 +9694,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="4"/>
+    <row r="65" spans="2:69" ht="45" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G65" s="4"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7">
@@ -9756,8 +9840,6700 @@
         <v>0</v>
       </c>
     </row>
+    <row r="66" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7">
+        <f t="shared" ref="I66:I114" si="106">G66-H66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="9"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7">
+        <f t="shared" ref="L66:L114" si="107">I62-K66</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="9"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7">
+        <f t="shared" ref="O66:O114" si="108">L66-N66</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7">
+        <f t="shared" ref="R66:R114" si="109">O66-Q66</f>
+        <v>0</v>
+      </c>
+      <c r="S66" s="9"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7">
+        <f t="shared" ref="U66:U114" si="110">R66-T66</f>
+        <v>0</v>
+      </c>
+      <c r="V66" s="9"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7">
+        <f t="shared" ref="X66:X114" si="111">U66-W66</f>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7">
+        <f t="shared" ref="AA66:AA114" si="112">X66-Z66</f>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7">
+        <f t="shared" ref="AD66:AD114" si="113">AA66-AC66</f>
+        <v>0</v>
+      </c>
+      <c r="AE66" s="9"/>
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="7">
+        <f t="shared" ref="AG66:AG114" si="114">AD66-AF66</f>
+        <v>0</v>
+      </c>
+      <c r="AH66" s="9"/>
+      <c r="AI66" s="7"/>
+      <c r="AJ66" s="7">
+        <f t="shared" ref="AJ66:AJ114" si="115">AG66-AI66</f>
+        <v>0</v>
+      </c>
+      <c r="AK66" s="9"/>
+      <c r="AL66" s="7"/>
+      <c r="AM66" s="7">
+        <f t="shared" ref="AM66:AM114" si="116">AJ66-AL66</f>
+        <v>0</v>
+      </c>
+      <c r="AN66" s="9"/>
+      <c r="AO66" s="7"/>
+      <c r="AP66" s="7">
+        <f t="shared" ref="AP66:AP114" si="117">AM66-AO66</f>
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="9"/>
+      <c r="AR66" s="7"/>
+      <c r="AS66" s="7">
+        <f t="shared" ref="AS66:AS114" si="118">AP66-AR66</f>
+        <v>0</v>
+      </c>
+      <c r="AT66" s="9"/>
+      <c r="AU66" s="7"/>
+      <c r="AV66" s="7">
+        <f t="shared" ref="AV66:AV114" si="119">AS66-AU66</f>
+        <v>0</v>
+      </c>
+      <c r="AW66" s="9"/>
+      <c r="AX66" s="7"/>
+      <c r="AY66" s="7">
+        <f t="shared" ref="AY66:AY114" si="120">AV66-AX66</f>
+        <v>0</v>
+      </c>
+      <c r="AZ66" s="9"/>
+      <c r="BA66" s="7"/>
+      <c r="BB66" s="7">
+        <f t="shared" ref="BB66:BB114" si="121">AY66-BA66</f>
+        <v>0</v>
+      </c>
+      <c r="BC66" s="9"/>
+      <c r="BD66" s="7"/>
+      <c r="BE66" s="7">
+        <f t="shared" ref="BE66:BE114" si="122">BB66-BD66</f>
+        <v>0</v>
+      </c>
+      <c r="BF66" s="9"/>
+      <c r="BG66" s="7"/>
+      <c r="BH66" s="7">
+        <f t="shared" ref="BH66:BH114" si="123">BE66-BG66</f>
+        <v>0</v>
+      </c>
+      <c r="BI66" s="9"/>
+      <c r="BJ66" s="7"/>
+      <c r="BK66" s="7">
+        <f t="shared" ref="BK66:BK114" si="124">BH66-BJ66</f>
+        <v>0</v>
+      </c>
+      <c r="BL66" s="9"/>
+      <c r="BM66" s="7"/>
+      <c r="BN66" s="7">
+        <f t="shared" ref="BN66:BN114" si="125">BK66-BM66</f>
+        <v>0</v>
+      </c>
+      <c r="BO66" s="9"/>
+      <c r="BP66" s="10">
+        <f t="shared" ref="BP66:BP114" si="126">H62+K66+N66+Q66+T66+W66+Z66+AC66+AF66+AI66+AL66+AO66+AR66+AU66+AX66+BA66+BD66+BG66+BJ66+BM66</f>
+        <v>0</v>
+      </c>
+      <c r="BQ66" s="10">
+        <f t="shared" ref="BQ66:BQ114" si="127">G62-BP66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="9"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="9"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="9"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="9"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="9"/>
+      <c r="AF67" s="7"/>
+      <c r="AG67" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH67" s="9"/>
+      <c r="AI67" s="7"/>
+      <c r="AJ67" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK67" s="9"/>
+      <c r="AL67" s="7"/>
+      <c r="AM67" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN67" s="9"/>
+      <c r="AO67" s="7"/>
+      <c r="AP67" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="9"/>
+      <c r="AR67" s="7"/>
+      <c r="AS67" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT67" s="9"/>
+      <c r="AU67" s="7"/>
+      <c r="AV67" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW67" s="9"/>
+      <c r="AX67" s="7"/>
+      <c r="AY67" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ67" s="9"/>
+      <c r="BA67" s="7"/>
+      <c r="BB67" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC67" s="9"/>
+      <c r="BD67" s="7"/>
+      <c r="BE67" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF67" s="9"/>
+      <c r="BG67" s="7"/>
+      <c r="BH67" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI67" s="9"/>
+      <c r="BJ67" s="7"/>
+      <c r="BK67" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL67" s="9"/>
+      <c r="BM67" s="7"/>
+      <c r="BN67" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO67" s="9"/>
+      <c r="BP67" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ67" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="9"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="9"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="9"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="9"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="9"/>
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH68" s="9"/>
+      <c r="AI68" s="7"/>
+      <c r="AJ68" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK68" s="9"/>
+      <c r="AL68" s="7"/>
+      <c r="AM68" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN68" s="9"/>
+      <c r="AO68" s="7"/>
+      <c r="AP68" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="9"/>
+      <c r="AR68" s="7"/>
+      <c r="AS68" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT68" s="9"/>
+      <c r="AU68" s="7"/>
+      <c r="AV68" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW68" s="9"/>
+      <c r="AX68" s="7"/>
+      <c r="AY68" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ68" s="9"/>
+      <c r="BA68" s="7"/>
+      <c r="BB68" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC68" s="9"/>
+      <c r="BD68" s="7"/>
+      <c r="BE68" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF68" s="9"/>
+      <c r="BG68" s="7"/>
+      <c r="BH68" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI68" s="9"/>
+      <c r="BJ68" s="7"/>
+      <c r="BK68" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL68" s="9"/>
+      <c r="BM68" s="7"/>
+      <c r="BN68" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO68" s="9"/>
+      <c r="BP68" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ68" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="9"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="9"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="9"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="9"/>
+      <c r="AF69" s="7"/>
+      <c r="AG69" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH69" s="9"/>
+      <c r="AI69" s="7"/>
+      <c r="AJ69" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK69" s="9"/>
+      <c r="AL69" s="7"/>
+      <c r="AM69" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN69" s="9"/>
+      <c r="AO69" s="7"/>
+      <c r="AP69" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="9"/>
+      <c r="AR69" s="7"/>
+      <c r="AS69" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT69" s="9"/>
+      <c r="AU69" s="7"/>
+      <c r="AV69" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW69" s="9"/>
+      <c r="AX69" s="7"/>
+      <c r="AY69" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ69" s="9"/>
+      <c r="BA69" s="7"/>
+      <c r="BB69" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC69" s="9"/>
+      <c r="BD69" s="7"/>
+      <c r="BE69" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF69" s="9"/>
+      <c r="BG69" s="7"/>
+      <c r="BH69" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI69" s="9"/>
+      <c r="BJ69" s="7"/>
+      <c r="BK69" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL69" s="9"/>
+      <c r="BM69" s="7"/>
+      <c r="BN69" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO69" s="9"/>
+      <c r="BP69" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ69" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="9"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="9"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="9"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="9"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="7"/>
+      <c r="AD70" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="9"/>
+      <c r="AF70" s="7"/>
+      <c r="AG70" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH70" s="9"/>
+      <c r="AI70" s="7"/>
+      <c r="AJ70" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK70" s="9"/>
+      <c r="AL70" s="7"/>
+      <c r="AM70" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN70" s="9"/>
+      <c r="AO70" s="7"/>
+      <c r="AP70" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="9"/>
+      <c r="AR70" s="7"/>
+      <c r="AS70" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT70" s="9"/>
+      <c r="AU70" s="7"/>
+      <c r="AV70" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW70" s="9"/>
+      <c r="AX70" s="7"/>
+      <c r="AY70" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ70" s="9"/>
+      <c r="BA70" s="7"/>
+      <c r="BB70" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC70" s="9"/>
+      <c r="BD70" s="7"/>
+      <c r="BE70" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF70" s="9"/>
+      <c r="BG70" s="7"/>
+      <c r="BH70" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI70" s="9"/>
+      <c r="BJ70" s="7"/>
+      <c r="BK70" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL70" s="9"/>
+      <c r="BM70" s="7"/>
+      <c r="BN70" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO70" s="9"/>
+      <c r="BP70" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ70" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="9"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="9"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="9"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="9"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB71" s="9"/>
+      <c r="AC71" s="7"/>
+      <c r="AD71" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="9"/>
+      <c r="AF71" s="7"/>
+      <c r="AG71" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH71" s="9"/>
+      <c r="AI71" s="7"/>
+      <c r="AJ71" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK71" s="9"/>
+      <c r="AL71" s="7"/>
+      <c r="AM71" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN71" s="9"/>
+      <c r="AO71" s="7"/>
+      <c r="AP71" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ71" s="9"/>
+      <c r="AR71" s="7"/>
+      <c r="AS71" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT71" s="9"/>
+      <c r="AU71" s="7"/>
+      <c r="AV71" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW71" s="9"/>
+      <c r="AX71" s="7"/>
+      <c r="AY71" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ71" s="9"/>
+      <c r="BA71" s="7"/>
+      <c r="BB71" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC71" s="9"/>
+      <c r="BD71" s="7"/>
+      <c r="BE71" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF71" s="9"/>
+      <c r="BG71" s="7"/>
+      <c r="BH71" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI71" s="9"/>
+      <c r="BJ71" s="7"/>
+      <c r="BK71" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL71" s="9"/>
+      <c r="BM71" s="7"/>
+      <c r="BN71" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO71" s="9"/>
+      <c r="BP71" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ71" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="9"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="9"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="9"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="9"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB72" s="9"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE72" s="9"/>
+      <c r="AF72" s="7"/>
+      <c r="AG72" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH72" s="9"/>
+      <c r="AI72" s="7"/>
+      <c r="AJ72" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK72" s="9"/>
+      <c r="AL72" s="7"/>
+      <c r="AM72" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN72" s="9"/>
+      <c r="AO72" s="7"/>
+      <c r="AP72" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="9"/>
+      <c r="AR72" s="7"/>
+      <c r="AS72" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT72" s="9"/>
+      <c r="AU72" s="7"/>
+      <c r="AV72" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW72" s="9"/>
+      <c r="AX72" s="7"/>
+      <c r="AY72" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ72" s="9"/>
+      <c r="BA72" s="7"/>
+      <c r="BB72" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC72" s="9"/>
+      <c r="BD72" s="7"/>
+      <c r="BE72" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF72" s="9"/>
+      <c r="BG72" s="7"/>
+      <c r="BH72" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI72" s="9"/>
+      <c r="BJ72" s="7"/>
+      <c r="BK72" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL72" s="9"/>
+      <c r="BM72" s="7"/>
+      <c r="BN72" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO72" s="9"/>
+      <c r="BP72" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ72" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="9"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="9"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="9"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="9"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH73" s="9"/>
+      <c r="AI73" s="7"/>
+      <c r="AJ73" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK73" s="9"/>
+      <c r="AL73" s="7"/>
+      <c r="AM73" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN73" s="9"/>
+      <c r="AO73" s="7"/>
+      <c r="AP73" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="9"/>
+      <c r="AR73" s="7"/>
+      <c r="AS73" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT73" s="9"/>
+      <c r="AU73" s="7"/>
+      <c r="AV73" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW73" s="9"/>
+      <c r="AX73" s="7"/>
+      <c r="AY73" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ73" s="9"/>
+      <c r="BA73" s="7"/>
+      <c r="BB73" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC73" s="9"/>
+      <c r="BD73" s="7"/>
+      <c r="BE73" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF73" s="9"/>
+      <c r="BG73" s="7"/>
+      <c r="BH73" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI73" s="9"/>
+      <c r="BJ73" s="7"/>
+      <c r="BK73" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL73" s="9"/>
+      <c r="BM73" s="7"/>
+      <c r="BN73" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO73" s="9"/>
+      <c r="BP73" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ73" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="9"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="9"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="9"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="9"/>
+      <c r="AF74" s="7"/>
+      <c r="AG74" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH74" s="9"/>
+      <c r="AI74" s="7"/>
+      <c r="AJ74" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK74" s="9"/>
+      <c r="AL74" s="7"/>
+      <c r="AM74" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN74" s="9"/>
+      <c r="AO74" s="7"/>
+      <c r="AP74" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ74" s="9"/>
+      <c r="AR74" s="7"/>
+      <c r="AS74" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT74" s="9"/>
+      <c r="AU74" s="7"/>
+      <c r="AV74" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW74" s="9"/>
+      <c r="AX74" s="7"/>
+      <c r="AY74" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ74" s="9"/>
+      <c r="BA74" s="7"/>
+      <c r="BB74" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC74" s="9"/>
+      <c r="BD74" s="7"/>
+      <c r="BE74" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF74" s="9"/>
+      <c r="BG74" s="7"/>
+      <c r="BH74" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI74" s="9"/>
+      <c r="BJ74" s="7"/>
+      <c r="BK74" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL74" s="9"/>
+      <c r="BM74" s="7"/>
+      <c r="BN74" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO74" s="9"/>
+      <c r="BP74" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ74" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="9"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="9"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="9"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="9"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="9"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="9"/>
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH75" s="9"/>
+      <c r="AI75" s="7"/>
+      <c r="AJ75" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK75" s="9"/>
+      <c r="AL75" s="7"/>
+      <c r="AM75" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN75" s="9"/>
+      <c r="AO75" s="7"/>
+      <c r="AP75" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="9"/>
+      <c r="AR75" s="7"/>
+      <c r="AS75" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT75" s="9"/>
+      <c r="AU75" s="7"/>
+      <c r="AV75" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW75" s="9"/>
+      <c r="AX75" s="7"/>
+      <c r="AY75" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ75" s="9"/>
+      <c r="BA75" s="7"/>
+      <c r="BB75" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC75" s="9"/>
+      <c r="BD75" s="7"/>
+      <c r="BE75" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF75" s="9"/>
+      <c r="BG75" s="7"/>
+      <c r="BH75" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI75" s="9"/>
+      <c r="BJ75" s="7"/>
+      <c r="BK75" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL75" s="9"/>
+      <c r="BM75" s="7"/>
+      <c r="BN75" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO75" s="9"/>
+      <c r="BP75" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ75" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="9"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="9"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="9"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="9"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB76" s="9"/>
+      <c r="AC76" s="7"/>
+      <c r="AD76" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="9"/>
+      <c r="AF76" s="7"/>
+      <c r="AG76" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH76" s="9"/>
+      <c r="AI76" s="7"/>
+      <c r="AJ76" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK76" s="9"/>
+      <c r="AL76" s="7"/>
+      <c r="AM76" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN76" s="9"/>
+      <c r="AO76" s="7"/>
+      <c r="AP76" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="9"/>
+      <c r="AR76" s="7"/>
+      <c r="AS76" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT76" s="9"/>
+      <c r="AU76" s="7"/>
+      <c r="AV76" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW76" s="9"/>
+      <c r="AX76" s="7"/>
+      <c r="AY76" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ76" s="9"/>
+      <c r="BA76" s="7"/>
+      <c r="BB76" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC76" s="9"/>
+      <c r="BD76" s="7"/>
+      <c r="BE76" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF76" s="9"/>
+      <c r="BG76" s="7"/>
+      <c r="BH76" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI76" s="9"/>
+      <c r="BJ76" s="7"/>
+      <c r="BK76" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL76" s="9"/>
+      <c r="BM76" s="7"/>
+      <c r="BN76" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO76" s="9"/>
+      <c r="BP76" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ76" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="9"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="9"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="9"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="9"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="9"/>
+      <c r="AC77" s="7"/>
+      <c r="AD77" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="9"/>
+      <c r="AF77" s="7"/>
+      <c r="AG77" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH77" s="9"/>
+      <c r="AI77" s="7"/>
+      <c r="AJ77" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK77" s="9"/>
+      <c r="AL77" s="7"/>
+      <c r="AM77" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN77" s="9"/>
+      <c r="AO77" s="7"/>
+      <c r="AP77" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ77" s="9"/>
+      <c r="AR77" s="7"/>
+      <c r="AS77" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT77" s="9"/>
+      <c r="AU77" s="7"/>
+      <c r="AV77" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW77" s="9"/>
+      <c r="AX77" s="7"/>
+      <c r="AY77" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ77" s="9"/>
+      <c r="BA77" s="7"/>
+      <c r="BB77" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC77" s="9"/>
+      <c r="BD77" s="7"/>
+      <c r="BE77" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF77" s="9"/>
+      <c r="BG77" s="7"/>
+      <c r="BH77" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI77" s="9"/>
+      <c r="BJ77" s="7"/>
+      <c r="BK77" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL77" s="9"/>
+      <c r="BM77" s="7"/>
+      <c r="BN77" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO77" s="9"/>
+      <c r="BP77" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ77" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="9"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="9"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="9"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="9"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB78" s="9"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="9"/>
+      <c r="AF78" s="7"/>
+      <c r="AG78" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH78" s="9"/>
+      <c r="AI78" s="7"/>
+      <c r="AJ78" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK78" s="9"/>
+      <c r="AL78" s="7"/>
+      <c r="AM78" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN78" s="9"/>
+      <c r="AO78" s="7"/>
+      <c r="AP78" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ78" s="9"/>
+      <c r="AR78" s="7"/>
+      <c r="AS78" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT78" s="9"/>
+      <c r="AU78" s="7"/>
+      <c r="AV78" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW78" s="9"/>
+      <c r="AX78" s="7"/>
+      <c r="AY78" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ78" s="9"/>
+      <c r="BA78" s="7"/>
+      <c r="BB78" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC78" s="9"/>
+      <c r="BD78" s="7"/>
+      <c r="BE78" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF78" s="9"/>
+      <c r="BG78" s="7"/>
+      <c r="BH78" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI78" s="9"/>
+      <c r="BJ78" s="7"/>
+      <c r="BK78" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL78" s="9"/>
+      <c r="BM78" s="7"/>
+      <c r="BN78" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO78" s="9"/>
+      <c r="BP78" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ78" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="9"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S79" s="9"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V79" s="9"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB79" s="9"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE79" s="9"/>
+      <c r="AF79" s="7"/>
+      <c r="AG79" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH79" s="9"/>
+      <c r="AI79" s="7"/>
+      <c r="AJ79" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK79" s="9"/>
+      <c r="AL79" s="7"/>
+      <c r="AM79" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN79" s="9"/>
+      <c r="AO79" s="7"/>
+      <c r="AP79" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ79" s="9"/>
+      <c r="AR79" s="7"/>
+      <c r="AS79" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT79" s="9"/>
+      <c r="AU79" s="7"/>
+      <c r="AV79" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW79" s="9"/>
+      <c r="AX79" s="7"/>
+      <c r="AY79" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ79" s="9"/>
+      <c r="BA79" s="7"/>
+      <c r="BB79" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC79" s="9"/>
+      <c r="BD79" s="7"/>
+      <c r="BE79" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF79" s="9"/>
+      <c r="BG79" s="7"/>
+      <c r="BH79" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI79" s="9"/>
+      <c r="BJ79" s="7"/>
+      <c r="BK79" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL79" s="9"/>
+      <c r="BM79" s="7"/>
+      <c r="BN79" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO79" s="9"/>
+      <c r="BP79" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ79" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="9"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S80" s="9"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="9"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB80" s="9"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE80" s="9"/>
+      <c r="AF80" s="7"/>
+      <c r="AG80" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH80" s="9"/>
+      <c r="AI80" s="7"/>
+      <c r="AJ80" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK80" s="9"/>
+      <c r="AL80" s="7"/>
+      <c r="AM80" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN80" s="9"/>
+      <c r="AO80" s="7"/>
+      <c r="AP80" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ80" s="9"/>
+      <c r="AR80" s="7"/>
+      <c r="AS80" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT80" s="9"/>
+      <c r="AU80" s="7"/>
+      <c r="AV80" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW80" s="9"/>
+      <c r="AX80" s="7"/>
+      <c r="AY80" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ80" s="9"/>
+      <c r="BA80" s="7"/>
+      <c r="BB80" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC80" s="9"/>
+      <c r="BD80" s="7"/>
+      <c r="BE80" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF80" s="9"/>
+      <c r="BG80" s="7"/>
+      <c r="BH80" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI80" s="9"/>
+      <c r="BJ80" s="7"/>
+      <c r="BK80" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL80" s="9"/>
+      <c r="BM80" s="7"/>
+      <c r="BN80" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO80" s="9"/>
+      <c r="BP80" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ80" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="9"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="9"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S81" s="9"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V81" s="9"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="7"/>
+      <c r="AD81" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE81" s="9"/>
+      <c r="AF81" s="7"/>
+      <c r="AG81" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH81" s="9"/>
+      <c r="AI81" s="7"/>
+      <c r="AJ81" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK81" s="9"/>
+      <c r="AL81" s="7"/>
+      <c r="AM81" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN81" s="9"/>
+      <c r="AO81" s="7"/>
+      <c r="AP81" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ81" s="9"/>
+      <c r="AR81" s="7"/>
+      <c r="AS81" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT81" s="9"/>
+      <c r="AU81" s="7"/>
+      <c r="AV81" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW81" s="9"/>
+      <c r="AX81" s="7"/>
+      <c r="AY81" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ81" s="9"/>
+      <c r="BA81" s="7"/>
+      <c r="BB81" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC81" s="9"/>
+      <c r="BD81" s="7"/>
+      <c r="BE81" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF81" s="9"/>
+      <c r="BG81" s="7"/>
+      <c r="BH81" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI81" s="9"/>
+      <c r="BJ81" s="7"/>
+      <c r="BK81" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL81" s="9"/>
+      <c r="BM81" s="7"/>
+      <c r="BN81" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO81" s="9"/>
+      <c r="BP81" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ81" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="9"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="9"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S82" s="9"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V82" s="9"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB82" s="9"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="9"/>
+      <c r="AF82" s="7"/>
+      <c r="AG82" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH82" s="9"/>
+      <c r="AI82" s="7"/>
+      <c r="AJ82" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK82" s="9"/>
+      <c r="AL82" s="7"/>
+      <c r="AM82" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN82" s="9"/>
+      <c r="AO82" s="7"/>
+      <c r="AP82" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="9"/>
+      <c r="AR82" s="7"/>
+      <c r="AS82" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT82" s="9"/>
+      <c r="AU82" s="7"/>
+      <c r="AV82" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW82" s="9"/>
+      <c r="AX82" s="7"/>
+      <c r="AY82" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ82" s="9"/>
+      <c r="BA82" s="7"/>
+      <c r="BB82" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC82" s="9"/>
+      <c r="BD82" s="7"/>
+      <c r="BE82" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF82" s="9"/>
+      <c r="BG82" s="7"/>
+      <c r="BH82" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI82" s="9"/>
+      <c r="BJ82" s="7"/>
+      <c r="BK82" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL82" s="9"/>
+      <c r="BM82" s="7"/>
+      <c r="BN82" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO82" s="9"/>
+      <c r="BP82" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ82" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="9"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="9"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S83" s="9"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="9"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y83" s="9"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB83" s="9"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE83" s="9"/>
+      <c r="AF83" s="7"/>
+      <c r="AG83" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH83" s="9"/>
+      <c r="AI83" s="7"/>
+      <c r="AJ83" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK83" s="9"/>
+      <c r="AL83" s="7"/>
+      <c r="AM83" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN83" s="9"/>
+      <c r="AO83" s="7"/>
+      <c r="AP83" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ83" s="9"/>
+      <c r="AR83" s="7"/>
+      <c r="AS83" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT83" s="9"/>
+      <c r="AU83" s="7"/>
+      <c r="AV83" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW83" s="9"/>
+      <c r="AX83" s="7"/>
+      <c r="AY83" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ83" s="9"/>
+      <c r="BA83" s="7"/>
+      <c r="BB83" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC83" s="9"/>
+      <c r="BD83" s="7"/>
+      <c r="BE83" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF83" s="9"/>
+      <c r="BG83" s="7"/>
+      <c r="BH83" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI83" s="9"/>
+      <c r="BJ83" s="7"/>
+      <c r="BK83" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL83" s="9"/>
+      <c r="BM83" s="7"/>
+      <c r="BN83" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO83" s="9"/>
+      <c r="BP83" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ83" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="9"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="9"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S84" s="9"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V84" s="9"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="7"/>
+      <c r="AD84" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="9"/>
+      <c r="AF84" s="7"/>
+      <c r="AG84" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH84" s="9"/>
+      <c r="AI84" s="7"/>
+      <c r="AJ84" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK84" s="9"/>
+      <c r="AL84" s="7"/>
+      <c r="AM84" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN84" s="9"/>
+      <c r="AO84" s="7"/>
+      <c r="AP84" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ84" s="9"/>
+      <c r="AR84" s="7"/>
+      <c r="AS84" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT84" s="9"/>
+      <c r="AU84" s="7"/>
+      <c r="AV84" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW84" s="9"/>
+      <c r="AX84" s="7"/>
+      <c r="AY84" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ84" s="9"/>
+      <c r="BA84" s="7"/>
+      <c r="BB84" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC84" s="9"/>
+      <c r="BD84" s="7"/>
+      <c r="BE84" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF84" s="9"/>
+      <c r="BG84" s="7"/>
+      <c r="BH84" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI84" s="9"/>
+      <c r="BJ84" s="7"/>
+      <c r="BK84" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL84" s="9"/>
+      <c r="BM84" s="7"/>
+      <c r="BN84" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO84" s="9"/>
+      <c r="BP84" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ84" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="9"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="9"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S85" s="9"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V85" s="9"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y85" s="9"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB85" s="9"/>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="9"/>
+      <c r="AF85" s="7"/>
+      <c r="AG85" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH85" s="9"/>
+      <c r="AI85" s="7"/>
+      <c r="AJ85" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK85" s="9"/>
+      <c r="AL85" s="7"/>
+      <c r="AM85" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN85" s="9"/>
+      <c r="AO85" s="7"/>
+      <c r="AP85" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ85" s="9"/>
+      <c r="AR85" s="7"/>
+      <c r="AS85" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT85" s="9"/>
+      <c r="AU85" s="7"/>
+      <c r="AV85" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW85" s="9"/>
+      <c r="AX85" s="7"/>
+      <c r="AY85" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ85" s="9"/>
+      <c r="BA85" s="7"/>
+      <c r="BB85" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC85" s="9"/>
+      <c r="BD85" s="7"/>
+      <c r="BE85" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF85" s="9"/>
+      <c r="BG85" s="7"/>
+      <c r="BH85" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI85" s="9"/>
+      <c r="BJ85" s="7"/>
+      <c r="BK85" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL85" s="9"/>
+      <c r="BM85" s="7"/>
+      <c r="BN85" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO85" s="9"/>
+      <c r="BP85" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ85" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="9"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="9"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S86" s="9"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="9"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y86" s="9"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB86" s="9"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE86" s="9"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH86" s="9"/>
+      <c r="AI86" s="7"/>
+      <c r="AJ86" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK86" s="9"/>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN86" s="9"/>
+      <c r="AO86" s="7"/>
+      <c r="AP86" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ86" s="9"/>
+      <c r="AR86" s="7"/>
+      <c r="AS86" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT86" s="9"/>
+      <c r="AU86" s="7"/>
+      <c r="AV86" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW86" s="9"/>
+      <c r="AX86" s="7"/>
+      <c r="AY86" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ86" s="9"/>
+      <c r="BA86" s="7"/>
+      <c r="BB86" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC86" s="9"/>
+      <c r="BD86" s="7"/>
+      <c r="BE86" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF86" s="9"/>
+      <c r="BG86" s="7"/>
+      <c r="BH86" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI86" s="9"/>
+      <c r="BJ86" s="7"/>
+      <c r="BK86" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL86" s="9"/>
+      <c r="BM86" s="7"/>
+      <c r="BN86" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO86" s="9"/>
+      <c r="BP86" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ86" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="9"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="9"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S87" s="9"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V87" s="9"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y87" s="9"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB87" s="9"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE87" s="9"/>
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH87" s="9"/>
+      <c r="AI87" s="7"/>
+      <c r="AJ87" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK87" s="9"/>
+      <c r="AL87" s="7"/>
+      <c r="AM87" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN87" s="9"/>
+      <c r="AO87" s="7"/>
+      <c r="AP87" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ87" s="9"/>
+      <c r="AR87" s="7"/>
+      <c r="AS87" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT87" s="9"/>
+      <c r="AU87" s="7"/>
+      <c r="AV87" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW87" s="9"/>
+      <c r="AX87" s="7"/>
+      <c r="AY87" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ87" s="9"/>
+      <c r="BA87" s="7"/>
+      <c r="BB87" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC87" s="9"/>
+      <c r="BD87" s="7"/>
+      <c r="BE87" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF87" s="9"/>
+      <c r="BG87" s="7"/>
+      <c r="BH87" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI87" s="9"/>
+      <c r="BJ87" s="7"/>
+      <c r="BK87" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL87" s="9"/>
+      <c r="BM87" s="7"/>
+      <c r="BN87" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO87" s="9"/>
+      <c r="BP87" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ87" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="9"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="9"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="9"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V88" s="9"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y88" s="9"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB88" s="9"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE88" s="9"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH88" s="9"/>
+      <c r="AI88" s="7"/>
+      <c r="AJ88" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK88" s="9"/>
+      <c r="AL88" s="7"/>
+      <c r="AM88" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN88" s="9"/>
+      <c r="AO88" s="7"/>
+      <c r="AP88" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ88" s="9"/>
+      <c r="AR88" s="7"/>
+      <c r="AS88" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT88" s="9"/>
+      <c r="AU88" s="7"/>
+      <c r="AV88" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW88" s="9"/>
+      <c r="AX88" s="7"/>
+      <c r="AY88" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ88" s="9"/>
+      <c r="BA88" s="7"/>
+      <c r="BB88" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC88" s="9"/>
+      <c r="BD88" s="7"/>
+      <c r="BE88" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF88" s="9"/>
+      <c r="BG88" s="7"/>
+      <c r="BH88" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI88" s="9"/>
+      <c r="BJ88" s="7"/>
+      <c r="BK88" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL88" s="9"/>
+      <c r="BM88" s="7"/>
+      <c r="BN88" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO88" s="9"/>
+      <c r="BP88" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ88" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="9"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="9"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="9"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V89" s="9"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y89" s="9"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB89" s="9"/>
+      <c r="AC89" s="7"/>
+      <c r="AD89" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE89" s="9"/>
+      <c r="AF89" s="7"/>
+      <c r="AG89" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH89" s="9"/>
+      <c r="AI89" s="7"/>
+      <c r="AJ89" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK89" s="9"/>
+      <c r="AL89" s="7"/>
+      <c r="AM89" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN89" s="9"/>
+      <c r="AO89" s="7"/>
+      <c r="AP89" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ89" s="9"/>
+      <c r="AR89" s="7"/>
+      <c r="AS89" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT89" s="9"/>
+      <c r="AU89" s="7"/>
+      <c r="AV89" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW89" s="9"/>
+      <c r="AX89" s="7"/>
+      <c r="AY89" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ89" s="9"/>
+      <c r="BA89" s="7"/>
+      <c r="BB89" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC89" s="9"/>
+      <c r="BD89" s="7"/>
+      <c r="BE89" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF89" s="9"/>
+      <c r="BG89" s="7"/>
+      <c r="BH89" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI89" s="9"/>
+      <c r="BJ89" s="7"/>
+      <c r="BK89" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL89" s="9"/>
+      <c r="BM89" s="7"/>
+      <c r="BN89" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO89" s="9"/>
+      <c r="BP89" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ89" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="9"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="9"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="9"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V90" s="9"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB90" s="9"/>
+      <c r="AC90" s="7"/>
+      <c r="AD90" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE90" s="9"/>
+      <c r="AF90" s="7"/>
+      <c r="AG90" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH90" s="9"/>
+      <c r="AI90" s="7"/>
+      <c r="AJ90" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK90" s="9"/>
+      <c r="AL90" s="7"/>
+      <c r="AM90" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN90" s="9"/>
+      <c r="AO90" s="7"/>
+      <c r="AP90" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ90" s="9"/>
+      <c r="AR90" s="7"/>
+      <c r="AS90" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT90" s="9"/>
+      <c r="AU90" s="7"/>
+      <c r="AV90" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW90" s="9"/>
+      <c r="AX90" s="7"/>
+      <c r="AY90" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ90" s="9"/>
+      <c r="BA90" s="7"/>
+      <c r="BB90" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC90" s="9"/>
+      <c r="BD90" s="7"/>
+      <c r="BE90" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF90" s="9"/>
+      <c r="BG90" s="7"/>
+      <c r="BH90" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI90" s="9"/>
+      <c r="BJ90" s="7"/>
+      <c r="BK90" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL90" s="9"/>
+      <c r="BM90" s="7"/>
+      <c r="BN90" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO90" s="9"/>
+      <c r="BP90" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ90" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="9"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S91" s="9"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V91" s="9"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB91" s="9"/>
+      <c r="AC91" s="7"/>
+      <c r="AD91" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE91" s="9"/>
+      <c r="AF91" s="7"/>
+      <c r="AG91" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH91" s="9"/>
+      <c r="AI91" s="7"/>
+      <c r="AJ91" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK91" s="9"/>
+      <c r="AL91" s="7"/>
+      <c r="AM91" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN91" s="9"/>
+      <c r="AO91" s="7"/>
+      <c r="AP91" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ91" s="9"/>
+      <c r="AR91" s="7"/>
+      <c r="AS91" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT91" s="9"/>
+      <c r="AU91" s="7"/>
+      <c r="AV91" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW91" s="9"/>
+      <c r="AX91" s="7"/>
+      <c r="AY91" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ91" s="9"/>
+      <c r="BA91" s="7"/>
+      <c r="BB91" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC91" s="9"/>
+      <c r="BD91" s="7"/>
+      <c r="BE91" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF91" s="9"/>
+      <c r="BG91" s="7"/>
+      <c r="BH91" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI91" s="9"/>
+      <c r="BJ91" s="7"/>
+      <c r="BK91" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL91" s="9"/>
+      <c r="BM91" s="7"/>
+      <c r="BN91" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO91" s="9"/>
+      <c r="BP91" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ91" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="9"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="9"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S92" s="9"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="9"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y92" s="9"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB92" s="9"/>
+      <c r="AC92" s="7"/>
+      <c r="AD92" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE92" s="9"/>
+      <c r="AF92" s="7"/>
+      <c r="AG92" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH92" s="9"/>
+      <c r="AI92" s="7"/>
+      <c r="AJ92" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK92" s="9"/>
+      <c r="AL92" s="7"/>
+      <c r="AM92" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN92" s="9"/>
+      <c r="AO92" s="7"/>
+      <c r="AP92" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ92" s="9"/>
+      <c r="AR92" s="7"/>
+      <c r="AS92" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT92" s="9"/>
+      <c r="AU92" s="7"/>
+      <c r="AV92" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW92" s="9"/>
+      <c r="AX92" s="7"/>
+      <c r="AY92" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ92" s="9"/>
+      <c r="BA92" s="7"/>
+      <c r="BB92" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC92" s="9"/>
+      <c r="BD92" s="7"/>
+      <c r="BE92" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF92" s="9"/>
+      <c r="BG92" s="7"/>
+      <c r="BH92" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI92" s="9"/>
+      <c r="BJ92" s="7"/>
+      <c r="BK92" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL92" s="9"/>
+      <c r="BM92" s="7"/>
+      <c r="BN92" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO92" s="9"/>
+      <c r="BP92" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ92" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="9"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="9"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S93" s="9"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V93" s="9"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y93" s="9"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB93" s="9"/>
+      <c r="AC93" s="7"/>
+      <c r="AD93" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE93" s="9"/>
+      <c r="AF93" s="7"/>
+      <c r="AG93" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH93" s="9"/>
+      <c r="AI93" s="7"/>
+      <c r="AJ93" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK93" s="9"/>
+      <c r="AL93" s="7"/>
+      <c r="AM93" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN93" s="9"/>
+      <c r="AO93" s="7"/>
+      <c r="AP93" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ93" s="9"/>
+      <c r="AR93" s="7"/>
+      <c r="AS93" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT93" s="9"/>
+      <c r="AU93" s="7"/>
+      <c r="AV93" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW93" s="9"/>
+      <c r="AX93" s="7"/>
+      <c r="AY93" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ93" s="9"/>
+      <c r="BA93" s="7"/>
+      <c r="BB93" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC93" s="9"/>
+      <c r="BD93" s="7"/>
+      <c r="BE93" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF93" s="9"/>
+      <c r="BG93" s="7"/>
+      <c r="BH93" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI93" s="9"/>
+      <c r="BJ93" s="7"/>
+      <c r="BK93" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL93" s="9"/>
+      <c r="BM93" s="7"/>
+      <c r="BN93" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO93" s="9"/>
+      <c r="BP93" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ93" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="9"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="9"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S94" s="9"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V94" s="9"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y94" s="9"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB94" s="9"/>
+      <c r="AC94" s="7"/>
+      <c r="AD94" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE94" s="9"/>
+      <c r="AF94" s="7"/>
+      <c r="AG94" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH94" s="9"/>
+      <c r="AI94" s="7"/>
+      <c r="AJ94" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK94" s="9"/>
+      <c r="AL94" s="7"/>
+      <c r="AM94" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN94" s="9"/>
+      <c r="AO94" s="7"/>
+      <c r="AP94" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ94" s="9"/>
+      <c r="AR94" s="7"/>
+      <c r="AS94" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT94" s="9"/>
+      <c r="AU94" s="7"/>
+      <c r="AV94" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW94" s="9"/>
+      <c r="AX94" s="7"/>
+      <c r="AY94" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ94" s="9"/>
+      <c r="BA94" s="7"/>
+      <c r="BB94" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC94" s="9"/>
+      <c r="BD94" s="7"/>
+      <c r="BE94" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF94" s="9"/>
+      <c r="BG94" s="7"/>
+      <c r="BH94" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI94" s="9"/>
+      <c r="BJ94" s="7"/>
+      <c r="BK94" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL94" s="9"/>
+      <c r="BM94" s="7"/>
+      <c r="BN94" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO94" s="9"/>
+      <c r="BP94" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ94" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="9"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="9"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S95" s="9"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V95" s="9"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y95" s="9"/>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB95" s="9"/>
+      <c r="AC95" s="7"/>
+      <c r="AD95" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE95" s="9"/>
+      <c r="AF95" s="7"/>
+      <c r="AG95" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH95" s="9"/>
+      <c r="AI95" s="7"/>
+      <c r="AJ95" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK95" s="9"/>
+      <c r="AL95" s="7"/>
+      <c r="AM95" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN95" s="9"/>
+      <c r="AO95" s="7"/>
+      <c r="AP95" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ95" s="9"/>
+      <c r="AR95" s="7"/>
+      <c r="AS95" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT95" s="9"/>
+      <c r="AU95" s="7"/>
+      <c r="AV95" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW95" s="9"/>
+      <c r="AX95" s="7"/>
+      <c r="AY95" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ95" s="9"/>
+      <c r="BA95" s="7"/>
+      <c r="BB95" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC95" s="9"/>
+      <c r="BD95" s="7"/>
+      <c r="BE95" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF95" s="9"/>
+      <c r="BG95" s="7"/>
+      <c r="BH95" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI95" s="9"/>
+      <c r="BJ95" s="7"/>
+      <c r="BK95" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL95" s="9"/>
+      <c r="BM95" s="7"/>
+      <c r="BN95" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO95" s="9"/>
+      <c r="BP95" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ95" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="9"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="9"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S96" s="9"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V96" s="9"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y96" s="9"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB96" s="9"/>
+      <c r="AC96" s="7"/>
+      <c r="AD96" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE96" s="9"/>
+      <c r="AF96" s="7"/>
+      <c r="AG96" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH96" s="9"/>
+      <c r="AI96" s="7"/>
+      <c r="AJ96" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK96" s="9"/>
+      <c r="AL96" s="7"/>
+      <c r="AM96" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN96" s="9"/>
+      <c r="AO96" s="7"/>
+      <c r="AP96" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ96" s="9"/>
+      <c r="AR96" s="7"/>
+      <c r="AS96" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT96" s="9"/>
+      <c r="AU96" s="7"/>
+      <c r="AV96" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW96" s="9"/>
+      <c r="AX96" s="7"/>
+      <c r="AY96" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ96" s="9"/>
+      <c r="BA96" s="7"/>
+      <c r="BB96" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC96" s="9"/>
+      <c r="BD96" s="7"/>
+      <c r="BE96" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF96" s="9"/>
+      <c r="BG96" s="7"/>
+      <c r="BH96" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI96" s="9"/>
+      <c r="BJ96" s="7"/>
+      <c r="BK96" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL96" s="9"/>
+      <c r="BM96" s="7"/>
+      <c r="BN96" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO96" s="9"/>
+      <c r="BP96" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ96" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="9"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="9"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S97" s="9"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V97" s="9"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y97" s="9"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB97" s="9"/>
+      <c r="AC97" s="7"/>
+      <c r="AD97" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE97" s="9"/>
+      <c r="AF97" s="7"/>
+      <c r="AG97" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH97" s="9"/>
+      <c r="AI97" s="7"/>
+      <c r="AJ97" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK97" s="9"/>
+      <c r="AL97" s="7"/>
+      <c r="AM97" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN97" s="9"/>
+      <c r="AO97" s="7"/>
+      <c r="AP97" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ97" s="9"/>
+      <c r="AR97" s="7"/>
+      <c r="AS97" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT97" s="9"/>
+      <c r="AU97" s="7"/>
+      <c r="AV97" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW97" s="9"/>
+      <c r="AX97" s="7"/>
+      <c r="AY97" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ97" s="9"/>
+      <c r="BA97" s="7"/>
+      <c r="BB97" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC97" s="9"/>
+      <c r="BD97" s="7"/>
+      <c r="BE97" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF97" s="9"/>
+      <c r="BG97" s="7"/>
+      <c r="BH97" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI97" s="9"/>
+      <c r="BJ97" s="7"/>
+      <c r="BK97" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL97" s="9"/>
+      <c r="BM97" s="7"/>
+      <c r="BN97" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO97" s="9"/>
+      <c r="BP97" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ97" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="9"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S98" s="9"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V98" s="9"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y98" s="9"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB98" s="9"/>
+      <c r="AC98" s="7"/>
+      <c r="AD98" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE98" s="9"/>
+      <c r="AF98" s="7"/>
+      <c r="AG98" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH98" s="9"/>
+      <c r="AI98" s="7"/>
+      <c r="AJ98" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK98" s="9"/>
+      <c r="AL98" s="7"/>
+      <c r="AM98" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN98" s="9"/>
+      <c r="AO98" s="7"/>
+      <c r="AP98" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ98" s="9"/>
+      <c r="AR98" s="7"/>
+      <c r="AS98" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT98" s="9"/>
+      <c r="AU98" s="7"/>
+      <c r="AV98" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW98" s="9"/>
+      <c r="AX98" s="7"/>
+      <c r="AY98" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ98" s="9"/>
+      <c r="BA98" s="7"/>
+      <c r="BB98" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC98" s="9"/>
+      <c r="BD98" s="7"/>
+      <c r="BE98" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF98" s="9"/>
+      <c r="BG98" s="7"/>
+      <c r="BH98" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI98" s="9"/>
+      <c r="BJ98" s="7"/>
+      <c r="BK98" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL98" s="9"/>
+      <c r="BM98" s="7"/>
+      <c r="BN98" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO98" s="9"/>
+      <c r="BP98" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ98" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="9"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="9"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S99" s="9"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V99" s="9"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y99" s="9"/>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB99" s="9"/>
+      <c r="AC99" s="7"/>
+      <c r="AD99" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE99" s="9"/>
+      <c r="AF99" s="7"/>
+      <c r="AG99" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH99" s="9"/>
+      <c r="AI99" s="7"/>
+      <c r="AJ99" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK99" s="9"/>
+      <c r="AL99" s="7"/>
+      <c r="AM99" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN99" s="9"/>
+      <c r="AO99" s="7"/>
+      <c r="AP99" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ99" s="9"/>
+      <c r="AR99" s="7"/>
+      <c r="AS99" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT99" s="9"/>
+      <c r="AU99" s="7"/>
+      <c r="AV99" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW99" s="9"/>
+      <c r="AX99" s="7"/>
+      <c r="AY99" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ99" s="9"/>
+      <c r="BA99" s="7"/>
+      <c r="BB99" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC99" s="9"/>
+      <c r="BD99" s="7"/>
+      <c r="BE99" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF99" s="9"/>
+      <c r="BG99" s="7"/>
+      <c r="BH99" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI99" s="9"/>
+      <c r="BJ99" s="7"/>
+      <c r="BK99" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL99" s="9"/>
+      <c r="BM99" s="7"/>
+      <c r="BN99" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO99" s="9"/>
+      <c r="BP99" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ99" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="9"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S100" s="9"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V100" s="9"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y100" s="9"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB100" s="9"/>
+      <c r="AC100" s="7"/>
+      <c r="AD100" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE100" s="9"/>
+      <c r="AF100" s="7"/>
+      <c r="AG100" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH100" s="9"/>
+      <c r="AI100" s="7"/>
+      <c r="AJ100" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK100" s="9"/>
+      <c r="AL100" s="7"/>
+      <c r="AM100" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN100" s="9"/>
+      <c r="AO100" s="7"/>
+      <c r="AP100" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ100" s="9"/>
+      <c r="AR100" s="7"/>
+      <c r="AS100" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT100" s="9"/>
+      <c r="AU100" s="7"/>
+      <c r="AV100" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW100" s="9"/>
+      <c r="AX100" s="7"/>
+      <c r="AY100" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ100" s="9"/>
+      <c r="BA100" s="7"/>
+      <c r="BB100" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC100" s="9"/>
+      <c r="BD100" s="7"/>
+      <c r="BE100" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF100" s="9"/>
+      <c r="BG100" s="7"/>
+      <c r="BH100" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI100" s="9"/>
+      <c r="BJ100" s="7"/>
+      <c r="BK100" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL100" s="9"/>
+      <c r="BM100" s="7"/>
+      <c r="BN100" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO100" s="9"/>
+      <c r="BP100" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ100" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="9"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S101" s="9"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V101" s="9"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y101" s="9"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB101" s="9"/>
+      <c r="AC101" s="7"/>
+      <c r="AD101" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE101" s="9"/>
+      <c r="AF101" s="7"/>
+      <c r="AG101" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH101" s="9"/>
+      <c r="AI101" s="7"/>
+      <c r="AJ101" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK101" s="9"/>
+      <c r="AL101" s="7"/>
+      <c r="AM101" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN101" s="9"/>
+      <c r="AO101" s="7"/>
+      <c r="AP101" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ101" s="9"/>
+      <c r="AR101" s="7"/>
+      <c r="AS101" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT101" s="9"/>
+      <c r="AU101" s="7"/>
+      <c r="AV101" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW101" s="9"/>
+      <c r="AX101" s="7"/>
+      <c r="AY101" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ101" s="9"/>
+      <c r="BA101" s="7"/>
+      <c r="BB101" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC101" s="9"/>
+      <c r="BD101" s="7"/>
+      <c r="BE101" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF101" s="9"/>
+      <c r="BG101" s="7"/>
+      <c r="BH101" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI101" s="9"/>
+      <c r="BJ101" s="7"/>
+      <c r="BK101" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL101" s="9"/>
+      <c r="BM101" s="7"/>
+      <c r="BN101" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO101" s="9"/>
+      <c r="BP101" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ101" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="9"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="9"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S102" s="9"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V102" s="9"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB102" s="9"/>
+      <c r="AC102" s="7"/>
+      <c r="AD102" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE102" s="9"/>
+      <c r="AF102" s="7"/>
+      <c r="AG102" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH102" s="9"/>
+      <c r="AI102" s="7"/>
+      <c r="AJ102" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK102" s="9"/>
+      <c r="AL102" s="7"/>
+      <c r="AM102" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN102" s="9"/>
+      <c r="AO102" s="7"/>
+      <c r="AP102" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ102" s="9"/>
+      <c r="AR102" s="7"/>
+      <c r="AS102" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT102" s="9"/>
+      <c r="AU102" s="7"/>
+      <c r="AV102" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW102" s="9"/>
+      <c r="AX102" s="7"/>
+      <c r="AY102" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ102" s="9"/>
+      <c r="BA102" s="7"/>
+      <c r="BB102" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC102" s="9"/>
+      <c r="BD102" s="7"/>
+      <c r="BE102" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF102" s="9"/>
+      <c r="BG102" s="7"/>
+      <c r="BH102" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI102" s="9"/>
+      <c r="BJ102" s="7"/>
+      <c r="BK102" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL102" s="9"/>
+      <c r="BM102" s="7"/>
+      <c r="BN102" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO102" s="9"/>
+      <c r="BP102" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ102" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="9"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="9"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S103" s="9"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V103" s="9"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y103" s="9"/>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB103" s="9"/>
+      <c r="AC103" s="7"/>
+      <c r="AD103" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE103" s="9"/>
+      <c r="AF103" s="7"/>
+      <c r="AG103" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH103" s="9"/>
+      <c r="AI103" s="7"/>
+      <c r="AJ103" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK103" s="9"/>
+      <c r="AL103" s="7"/>
+      <c r="AM103" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN103" s="9"/>
+      <c r="AO103" s="7"/>
+      <c r="AP103" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ103" s="9"/>
+      <c r="AR103" s="7"/>
+      <c r="AS103" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT103" s="9"/>
+      <c r="AU103" s="7"/>
+      <c r="AV103" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW103" s="9"/>
+      <c r="AX103" s="7"/>
+      <c r="AY103" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ103" s="9"/>
+      <c r="BA103" s="7"/>
+      <c r="BB103" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC103" s="9"/>
+      <c r="BD103" s="7"/>
+      <c r="BE103" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF103" s="9"/>
+      <c r="BG103" s="7"/>
+      <c r="BH103" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI103" s="9"/>
+      <c r="BJ103" s="7"/>
+      <c r="BK103" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL103" s="9"/>
+      <c r="BM103" s="7"/>
+      <c r="BN103" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO103" s="9"/>
+      <c r="BP103" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ103" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="9"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="9"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S104" s="9"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V104" s="9"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y104" s="9"/>
+      <c r="Z104" s="7"/>
+      <c r="AA104" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB104" s="9"/>
+      <c r="AC104" s="7"/>
+      <c r="AD104" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE104" s="9"/>
+      <c r="AF104" s="7"/>
+      <c r="AG104" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH104" s="9"/>
+      <c r="AI104" s="7"/>
+      <c r="AJ104" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK104" s="9"/>
+      <c r="AL104" s="7"/>
+      <c r="AM104" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN104" s="9"/>
+      <c r="AO104" s="7"/>
+      <c r="AP104" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ104" s="9"/>
+      <c r="AR104" s="7"/>
+      <c r="AS104" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT104" s="9"/>
+      <c r="AU104" s="7"/>
+      <c r="AV104" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW104" s="9"/>
+      <c r="AX104" s="7"/>
+      <c r="AY104" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ104" s="9"/>
+      <c r="BA104" s="7"/>
+      <c r="BB104" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC104" s="9"/>
+      <c r="BD104" s="7"/>
+      <c r="BE104" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF104" s="9"/>
+      <c r="BG104" s="7"/>
+      <c r="BH104" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI104" s="9"/>
+      <c r="BJ104" s="7"/>
+      <c r="BK104" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL104" s="9"/>
+      <c r="BM104" s="7"/>
+      <c r="BN104" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO104" s="9"/>
+      <c r="BP104" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ104" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="9"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="9"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S105" s="9"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V105" s="9"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="7"/>
+      <c r="AA105" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB105" s="9"/>
+      <c r="AC105" s="7"/>
+      <c r="AD105" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE105" s="9"/>
+      <c r="AF105" s="7"/>
+      <c r="AG105" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH105" s="9"/>
+      <c r="AI105" s="7"/>
+      <c r="AJ105" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK105" s="9"/>
+      <c r="AL105" s="7"/>
+      <c r="AM105" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN105" s="9"/>
+      <c r="AO105" s="7"/>
+      <c r="AP105" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ105" s="9"/>
+      <c r="AR105" s="7"/>
+      <c r="AS105" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT105" s="9"/>
+      <c r="AU105" s="7"/>
+      <c r="AV105" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW105" s="9"/>
+      <c r="AX105" s="7"/>
+      <c r="AY105" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ105" s="9"/>
+      <c r="BA105" s="7"/>
+      <c r="BB105" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC105" s="9"/>
+      <c r="BD105" s="7"/>
+      <c r="BE105" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF105" s="9"/>
+      <c r="BG105" s="7"/>
+      <c r="BH105" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI105" s="9"/>
+      <c r="BJ105" s="7"/>
+      <c r="BK105" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL105" s="9"/>
+      <c r="BM105" s="7"/>
+      <c r="BN105" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO105" s="9"/>
+      <c r="BP105" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ105" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="9"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="9"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S106" s="9"/>
+      <c r="T106" s="7"/>
+      <c r="U106" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V106" s="9"/>
+      <c r="W106" s="7"/>
+      <c r="X106" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y106" s="9"/>
+      <c r="Z106" s="7"/>
+      <c r="AA106" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB106" s="9"/>
+      <c r="AC106" s="7"/>
+      <c r="AD106" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE106" s="9"/>
+      <c r="AF106" s="7"/>
+      <c r="AG106" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH106" s="9"/>
+      <c r="AI106" s="7"/>
+      <c r="AJ106" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK106" s="9"/>
+      <c r="AL106" s="7"/>
+      <c r="AM106" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN106" s="9"/>
+      <c r="AO106" s="7"/>
+      <c r="AP106" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ106" s="9"/>
+      <c r="AR106" s="7"/>
+      <c r="AS106" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT106" s="9"/>
+      <c r="AU106" s="7"/>
+      <c r="AV106" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW106" s="9"/>
+      <c r="AX106" s="7"/>
+      <c r="AY106" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ106" s="9"/>
+      <c r="BA106" s="7"/>
+      <c r="BB106" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC106" s="9"/>
+      <c r="BD106" s="7"/>
+      <c r="BE106" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF106" s="9"/>
+      <c r="BG106" s="7"/>
+      <c r="BH106" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI106" s="9"/>
+      <c r="BJ106" s="7"/>
+      <c r="BK106" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL106" s="9"/>
+      <c r="BM106" s="7"/>
+      <c r="BN106" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO106" s="9"/>
+      <c r="BP106" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ106" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="9"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M107" s="9"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S107" s="9"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V107" s="9"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y107" s="9"/>
+      <c r="Z107" s="7"/>
+      <c r="AA107" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB107" s="9"/>
+      <c r="AC107" s="7"/>
+      <c r="AD107" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE107" s="9"/>
+      <c r="AF107" s="7"/>
+      <c r="AG107" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH107" s="9"/>
+      <c r="AI107" s="7"/>
+      <c r="AJ107" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK107" s="9"/>
+      <c r="AL107" s="7"/>
+      <c r="AM107" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN107" s="9"/>
+      <c r="AO107" s="7"/>
+      <c r="AP107" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ107" s="9"/>
+      <c r="AR107" s="7"/>
+      <c r="AS107" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT107" s="9"/>
+      <c r="AU107" s="7"/>
+      <c r="AV107" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW107" s="9"/>
+      <c r="AX107" s="7"/>
+      <c r="AY107" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ107" s="9"/>
+      <c r="BA107" s="7"/>
+      <c r="BB107" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC107" s="9"/>
+      <c r="BD107" s="7"/>
+      <c r="BE107" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF107" s="9"/>
+      <c r="BG107" s="7"/>
+      <c r="BH107" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI107" s="9"/>
+      <c r="BJ107" s="7"/>
+      <c r="BK107" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL107" s="9"/>
+      <c r="BM107" s="7"/>
+      <c r="BN107" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO107" s="9"/>
+      <c r="BP107" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ107" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="9"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M108" s="9"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S108" s="9"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V108" s="9"/>
+      <c r="W108" s="7"/>
+      <c r="X108" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y108" s="9"/>
+      <c r="Z108" s="7"/>
+      <c r="AA108" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB108" s="9"/>
+      <c r="AC108" s="7"/>
+      <c r="AD108" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE108" s="9"/>
+      <c r="AF108" s="7"/>
+      <c r="AG108" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH108" s="9"/>
+      <c r="AI108" s="7"/>
+      <c r="AJ108" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK108" s="9"/>
+      <c r="AL108" s="7"/>
+      <c r="AM108" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN108" s="9"/>
+      <c r="AO108" s="7"/>
+      <c r="AP108" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ108" s="9"/>
+      <c r="AR108" s="7"/>
+      <c r="AS108" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT108" s="9"/>
+      <c r="AU108" s="7"/>
+      <c r="AV108" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW108" s="9"/>
+      <c r="AX108" s="7"/>
+      <c r="AY108" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ108" s="9"/>
+      <c r="BA108" s="7"/>
+      <c r="BB108" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC108" s="9"/>
+      <c r="BD108" s="7"/>
+      <c r="BE108" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF108" s="9"/>
+      <c r="BG108" s="7"/>
+      <c r="BH108" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI108" s="9"/>
+      <c r="BJ108" s="7"/>
+      <c r="BK108" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL108" s="9"/>
+      <c r="BM108" s="7"/>
+      <c r="BN108" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO108" s="9"/>
+      <c r="BP108" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ108" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="9"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M109" s="9"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S109" s="9"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V109" s="9"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="7"/>
+      <c r="AA109" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB109" s="9"/>
+      <c r="AC109" s="7"/>
+      <c r="AD109" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE109" s="9"/>
+      <c r="AF109" s="7"/>
+      <c r="AG109" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH109" s="9"/>
+      <c r="AI109" s="7"/>
+      <c r="AJ109" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK109" s="9"/>
+      <c r="AL109" s="7"/>
+      <c r="AM109" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN109" s="9"/>
+      <c r="AO109" s="7"/>
+      <c r="AP109" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ109" s="9"/>
+      <c r="AR109" s="7"/>
+      <c r="AS109" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT109" s="9"/>
+      <c r="AU109" s="7"/>
+      <c r="AV109" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW109" s="9"/>
+      <c r="AX109" s="7"/>
+      <c r="AY109" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ109" s="9"/>
+      <c r="BA109" s="7"/>
+      <c r="BB109" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC109" s="9"/>
+      <c r="BD109" s="7"/>
+      <c r="BE109" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF109" s="9"/>
+      <c r="BG109" s="7"/>
+      <c r="BH109" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI109" s="9"/>
+      <c r="BJ109" s="7"/>
+      <c r="BK109" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL109" s="9"/>
+      <c r="BM109" s="7"/>
+      <c r="BN109" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO109" s="9"/>
+      <c r="BP109" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ109" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="9"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M110" s="9"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S110" s="9"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V110" s="9"/>
+      <c r="W110" s="7"/>
+      <c r="X110" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y110" s="9"/>
+      <c r="Z110" s="7"/>
+      <c r="AA110" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB110" s="9"/>
+      <c r="AC110" s="7"/>
+      <c r="AD110" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE110" s="9"/>
+      <c r="AF110" s="7"/>
+      <c r="AG110" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH110" s="9"/>
+      <c r="AI110" s="7"/>
+      <c r="AJ110" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK110" s="9"/>
+      <c r="AL110" s="7"/>
+      <c r="AM110" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN110" s="9"/>
+      <c r="AO110" s="7"/>
+      <c r="AP110" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ110" s="9"/>
+      <c r="AR110" s="7"/>
+      <c r="AS110" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT110" s="9"/>
+      <c r="AU110" s="7"/>
+      <c r="AV110" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW110" s="9"/>
+      <c r="AX110" s="7"/>
+      <c r="AY110" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ110" s="9"/>
+      <c r="BA110" s="7"/>
+      <c r="BB110" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC110" s="9"/>
+      <c r="BD110" s="7"/>
+      <c r="BE110" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF110" s="9"/>
+      <c r="BG110" s="7"/>
+      <c r="BH110" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI110" s="9"/>
+      <c r="BJ110" s="7"/>
+      <c r="BK110" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL110" s="9"/>
+      <c r="BM110" s="7"/>
+      <c r="BN110" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO110" s="9"/>
+      <c r="BP110" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ110" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="9"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="9"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S111" s="9"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V111" s="9"/>
+      <c r="W111" s="7"/>
+      <c r="X111" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y111" s="9"/>
+      <c r="Z111" s="7"/>
+      <c r="AA111" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB111" s="9"/>
+      <c r="AC111" s="7"/>
+      <c r="AD111" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE111" s="9"/>
+      <c r="AF111" s="7"/>
+      <c r="AG111" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH111" s="9"/>
+      <c r="AI111" s="7"/>
+      <c r="AJ111" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK111" s="9"/>
+      <c r="AL111" s="7"/>
+      <c r="AM111" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN111" s="9"/>
+      <c r="AO111" s="7"/>
+      <c r="AP111" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ111" s="9"/>
+      <c r="AR111" s="7"/>
+      <c r="AS111" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT111" s="9"/>
+      <c r="AU111" s="7"/>
+      <c r="AV111" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW111" s="9"/>
+      <c r="AX111" s="7"/>
+      <c r="AY111" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ111" s="9"/>
+      <c r="BA111" s="7"/>
+      <c r="BB111" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC111" s="9"/>
+      <c r="BD111" s="7"/>
+      <c r="BE111" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF111" s="9"/>
+      <c r="BG111" s="7"/>
+      <c r="BH111" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI111" s="9"/>
+      <c r="BJ111" s="7"/>
+      <c r="BK111" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL111" s="9"/>
+      <c r="BM111" s="7"/>
+      <c r="BN111" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO111" s="9"/>
+      <c r="BP111" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ111" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="9"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="9"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="7"/>
+      <c r="R112" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S112" s="9"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V112" s="9"/>
+      <c r="W112" s="7"/>
+      <c r="X112" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y112" s="9"/>
+      <c r="Z112" s="7"/>
+      <c r="AA112" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB112" s="9"/>
+      <c r="AC112" s="7"/>
+      <c r="AD112" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE112" s="9"/>
+      <c r="AF112" s="7"/>
+      <c r="AG112" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH112" s="9"/>
+      <c r="AI112" s="7"/>
+      <c r="AJ112" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK112" s="9"/>
+      <c r="AL112" s="7"/>
+      <c r="AM112" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN112" s="9"/>
+      <c r="AO112" s="7"/>
+      <c r="AP112" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ112" s="9"/>
+      <c r="AR112" s="7"/>
+      <c r="AS112" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT112" s="9"/>
+      <c r="AU112" s="7"/>
+      <c r="AV112" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW112" s="9"/>
+      <c r="AX112" s="7"/>
+      <c r="AY112" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ112" s="9"/>
+      <c r="BA112" s="7"/>
+      <c r="BB112" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC112" s="9"/>
+      <c r="BD112" s="7"/>
+      <c r="BE112" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF112" s="9"/>
+      <c r="BG112" s="7"/>
+      <c r="BH112" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI112" s="9"/>
+      <c r="BJ112" s="7"/>
+      <c r="BK112" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL112" s="9"/>
+      <c r="BM112" s="7"/>
+      <c r="BN112" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO112" s="9"/>
+      <c r="BP112" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ112" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="9"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="9"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S113" s="9"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V113" s="9"/>
+      <c r="W113" s="7"/>
+      <c r="X113" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y113" s="9"/>
+      <c r="Z113" s="7"/>
+      <c r="AA113" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB113" s="9"/>
+      <c r="AC113" s="7"/>
+      <c r="AD113" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE113" s="9"/>
+      <c r="AF113" s="7"/>
+      <c r="AG113" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH113" s="9"/>
+      <c r="AI113" s="7"/>
+      <c r="AJ113" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK113" s="9"/>
+      <c r="AL113" s="7"/>
+      <c r="AM113" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN113" s="9"/>
+      <c r="AO113" s="7"/>
+      <c r="AP113" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ113" s="9"/>
+      <c r="AR113" s="7"/>
+      <c r="AS113" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT113" s="9"/>
+      <c r="AU113" s="7"/>
+      <c r="AV113" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW113" s="9"/>
+      <c r="AX113" s="7"/>
+      <c r="AY113" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ113" s="9"/>
+      <c r="BA113" s="7"/>
+      <c r="BB113" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC113" s="9"/>
+      <c r="BD113" s="7"/>
+      <c r="BE113" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF113" s="9"/>
+      <c r="BG113" s="7"/>
+      <c r="BH113" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI113" s="9"/>
+      <c r="BJ113" s="7"/>
+      <c r="BK113" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL113" s="9"/>
+      <c r="BM113" s="7"/>
+      <c r="BN113" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO113" s="9"/>
+      <c r="BP113" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ113" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="9"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="9"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="7"/>
+      <c r="R114" s="7">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="S114" s="9"/>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="V114" s="9"/>
+      <c r="W114" s="7"/>
+      <c r="X114" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Y114" s="9"/>
+      <c r="Z114" s="7"/>
+      <c r="AA114" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB114" s="9"/>
+      <c r="AC114" s="7"/>
+      <c r="AD114" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AE114" s="9"/>
+      <c r="AF114" s="7"/>
+      <c r="AG114" s="7">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AH114" s="9"/>
+      <c r="AI114" s="7"/>
+      <c r="AJ114" s="7">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AK114" s="9"/>
+      <c r="AL114" s="7"/>
+      <c r="AM114" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AN114" s="9"/>
+      <c r="AO114" s="7"/>
+      <c r="AP114" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AQ114" s="9"/>
+      <c r="AR114" s="7"/>
+      <c r="AS114" s="7">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT114" s="9"/>
+      <c r="AU114" s="7"/>
+      <c r="AV114" s="7">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AW114" s="9"/>
+      <c r="AX114" s="7"/>
+      <c r="AY114" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AZ114" s="9"/>
+      <c r="BA114" s="7"/>
+      <c r="BB114" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BC114" s="9"/>
+      <c r="BD114" s="7"/>
+      <c r="BE114" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BF114" s="9"/>
+      <c r="BG114" s="7"/>
+      <c r="BH114" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BI114" s="9"/>
+      <c r="BJ114" s="7"/>
+      <c r="BK114" s="7">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BL114" s="9"/>
+      <c r="BM114" s="7"/>
+      <c r="BN114" s="7">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BO114" s="9"/>
+      <c r="BP114" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BQ114" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BD4:BE4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -9769,16 +16545,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BD4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Documentacion/Sprint Backlog.xlsx
+++ b/Documentacion/Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A0EF25-BBCE-4840-8674-E1859FF1E978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4974C2E8-A2A5-4268-B7BC-F36ADBA39609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="121">
   <si>
     <t>Columna</t>
   </si>
@@ -363,6 +363,45 @@
   </si>
   <si>
     <t>HU017</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder iniciar sesion con mis creedenciales</t>
+  </si>
+  <si>
+    <t>Diseño de la Interfaz de Inicio de Sesión</t>
+  </si>
+  <si>
+    <t>Validación de Credenciales</t>
+  </si>
+  <si>
+    <t>Gestión de Sesiones</t>
+  </si>
+  <si>
+    <t>HU018</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder cerrar sesion de mi cuenta de usuario</t>
+  </si>
+  <si>
+    <t>Diseño de la Interfaz de Cierre de Sesión</t>
+  </si>
+  <si>
+    <t>Redirección Post-Cierre de Sesión</t>
+  </si>
+  <si>
+    <t>HU019</t>
+  </si>
+  <si>
+    <t>HU020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como un Jefe de Planta, necesito marcar las etapas de producción como completadas, con la finalidad de actualizar el progreso de la producción.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como un Jefe de Planta, necesito gestionar el estado de la producción en tiempo real, con la finalidad de mantener la producción en marcha y resolver problemas rápidamente.	</t>
+  </si>
+  <si>
+    <t>HU021</t>
   </si>
 </sst>
 </file>
@@ -868,11 +907,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BQ114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="CR57" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8566,11 +8605,13 @@
       <c r="F57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G57" s="4"/>
+      <c r="G57" s="4">
+        <v>2</v>
+      </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="7"/>
@@ -9138,125 +9179,127 @@
       <c r="F61" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G61" s="4"/>
+      <c r="G61" s="4">
+        <v>2</v>
+      </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P61" s="9"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S61" s="9"/>
       <c r="T61" s="7"/>
       <c r="U61" s="7">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V61" s="9"/>
       <c r="W61" s="7"/>
       <c r="X61" s="7">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y61" s="9"/>
       <c r="Z61" s="7"/>
       <c r="AA61" s="7">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB61" s="9"/>
       <c r="AC61" s="7"/>
       <c r="AD61" s="7">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE61" s="9"/>
       <c r="AF61" s="7"/>
       <c r="AG61" s="7">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH61" s="9"/>
       <c r="AI61" s="7"/>
       <c r="AJ61" s="7">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK61" s="9"/>
       <c r="AL61" s="7"/>
       <c r="AM61" s="7">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN61" s="9"/>
       <c r="AO61" s="7"/>
       <c r="AP61" s="7">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ61" s="9"/>
       <c r="AR61" s="7"/>
       <c r="AS61" s="7">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT61" s="9"/>
       <c r="AU61" s="7"/>
       <c r="AV61" s="7">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW61" s="9"/>
       <c r="AX61" s="7"/>
       <c r="AY61" s="7">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ61" s="9"/>
       <c r="BA61" s="7"/>
       <c r="BB61" s="7">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC61" s="9"/>
       <c r="BD61" s="7"/>
       <c r="BE61" s="7">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF61" s="9"/>
       <c r="BG61" s="7"/>
       <c r="BH61" s="7">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI61" s="9"/>
       <c r="BJ61" s="7"/>
       <c r="BK61" s="7">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL61" s="9"/>
       <c r="BM61" s="7"/>
       <c r="BN61" s="7">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO61" s="9"/>
       <c r="BP61" s="10">
@@ -9265,7 +9308,7 @@
       </c>
       <c r="BQ61" s="10">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="2:69" x14ac:dyDescent="0.25">
@@ -9720,115 +9763,115 @@
       <c r="K65" s="7"/>
       <c r="L65" s="7">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P65" s="9"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S65" s="9"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V65" s="9"/>
       <c r="W65" s="7"/>
       <c r="X65" s="7">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y65" s="9"/>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB65" s="9"/>
       <c r="AC65" s="7"/>
       <c r="AD65" s="7">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE65" s="9"/>
       <c r="AF65" s="7"/>
       <c r="AG65" s="7">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH65" s="9"/>
       <c r="AI65" s="7"/>
       <c r="AJ65" s="7">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK65" s="9"/>
       <c r="AL65" s="7"/>
       <c r="AM65" s="7">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN65" s="9"/>
       <c r="AO65" s="7"/>
       <c r="AP65" s="7">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ65" s="9"/>
       <c r="AR65" s="7"/>
       <c r="AS65" s="7">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT65" s="9"/>
       <c r="AU65" s="7"/>
       <c r="AV65" s="7">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW65" s="9"/>
       <c r="AX65" s="7"/>
       <c r="AY65" s="7">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ65" s="9"/>
       <c r="BA65" s="7"/>
       <c r="BB65" s="7">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC65" s="9"/>
       <c r="BD65" s="7"/>
       <c r="BE65" s="7">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF65" s="9"/>
       <c r="BG65" s="7"/>
       <c r="BH65" s="7">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI65" s="9"/>
       <c r="BJ65" s="7"/>
       <c r="BK65" s="7">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL65" s="9"/>
       <c r="BM65" s="7"/>
       <c r="BN65" s="7">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO65" s="9"/>
       <c r="BP65" s="10">
@@ -9837,7 +9880,7 @@
       </c>
       <c r="BQ65" s="10">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="2:69" x14ac:dyDescent="0.25">
@@ -10266,17 +10309,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+    <row r="69" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G69" s="4">
+        <v>2</v>
+      </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="7"/>
@@ -10405,9 +10460,15 @@
     <row r="70" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="4"/>
+      <c r="D70" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G70" s="4"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7">
@@ -10541,9 +10602,15 @@
     <row r="71" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="4"/>
+      <c r="D71" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G71" s="4"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7">
@@ -10677,9 +10744,15 @@
     <row r="72" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="4"/>
+      <c r="D72" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G72" s="4"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7">
@@ -10813,9 +10886,15 @@
     <row r="73" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="4"/>
+      <c r="D73" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G73" s="4"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7">
@@ -10826,115 +10905,115 @@
       <c r="K73" s="7"/>
       <c r="L73" s="7">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P73" s="9"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S73" s="9"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V73" s="9"/>
       <c r="W73" s="7"/>
       <c r="X73" s="7">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y73" s="9"/>
       <c r="Z73" s="7"/>
       <c r="AA73" s="7">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB73" s="9"/>
       <c r="AC73" s="7"/>
       <c r="AD73" s="7">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE73" s="9"/>
       <c r="AF73" s="7"/>
       <c r="AG73" s="7">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH73" s="9"/>
       <c r="AI73" s="7"/>
       <c r="AJ73" s="7">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK73" s="9"/>
       <c r="AL73" s="7"/>
       <c r="AM73" s="7">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN73" s="9"/>
       <c r="AO73" s="7"/>
       <c r="AP73" s="7">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ73" s="9"/>
       <c r="AR73" s="7"/>
       <c r="AS73" s="7">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT73" s="9"/>
       <c r="AU73" s="7"/>
       <c r="AV73" s="7">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW73" s="9"/>
       <c r="AX73" s="7"/>
       <c r="AY73" s="7">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ73" s="9"/>
       <c r="BA73" s="7"/>
       <c r="BB73" s="7">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC73" s="9"/>
       <c r="BD73" s="7"/>
       <c r="BE73" s="7">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF73" s="9"/>
       <c r="BG73" s="7"/>
       <c r="BH73" s="7">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI73" s="9"/>
       <c r="BJ73" s="7"/>
       <c r="BK73" s="7">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL73" s="9"/>
       <c r="BM73" s="7"/>
       <c r="BN73" s="7">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO73" s="9"/>
       <c r="BP73" s="10">
@@ -10943,20 +11022,32 @@
       </c>
       <c r="BQ73" s="10">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+    <row r="74" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" s="4">
+        <v>2</v>
+      </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="7"/>
@@ -11085,9 +11176,15 @@
     <row r="75" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="4"/>
+      <c r="D75" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G75" s="4"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7">
@@ -11221,9 +11318,15 @@
     <row r="76" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="4"/>
+      <c r="D76" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G76" s="4"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7">
@@ -11357,9 +11460,15 @@
     <row r="77" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="4"/>
+      <c r="D77" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G77" s="4"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7">
@@ -11490,131 +11599,143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+    <row r="78" spans="2:69" ht="60" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G78" s="4">
+        <v>2</v>
+      </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="7"/>
       <c r="O78" s="7">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P78" s="9"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S78" s="9"/>
       <c r="T78" s="7"/>
       <c r="U78" s="7">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V78" s="9"/>
       <c r="W78" s="7"/>
       <c r="X78" s="7">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y78" s="9"/>
       <c r="Z78" s="7"/>
       <c r="AA78" s="7">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB78" s="9"/>
       <c r="AC78" s="7"/>
       <c r="AD78" s="7">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE78" s="9"/>
       <c r="AF78" s="7"/>
       <c r="AG78" s="7">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH78" s="9"/>
       <c r="AI78" s="7"/>
       <c r="AJ78" s="7">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK78" s="9"/>
       <c r="AL78" s="7"/>
       <c r="AM78" s="7">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN78" s="9"/>
       <c r="AO78" s="7"/>
       <c r="AP78" s="7">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ78" s="9"/>
       <c r="AR78" s="7"/>
       <c r="AS78" s="7">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT78" s="9"/>
       <c r="AU78" s="7"/>
       <c r="AV78" s="7">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW78" s="9"/>
       <c r="AX78" s="7"/>
       <c r="AY78" s="7">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ78" s="9"/>
       <c r="BA78" s="7"/>
       <c r="BB78" s="7">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC78" s="9"/>
       <c r="BD78" s="7"/>
       <c r="BE78" s="7">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF78" s="9"/>
       <c r="BG78" s="7"/>
       <c r="BH78" s="7">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI78" s="9"/>
       <c r="BJ78" s="7"/>
       <c r="BK78" s="7">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL78" s="9"/>
       <c r="BM78" s="7"/>
       <c r="BN78" s="7">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO78" s="9"/>
       <c r="BP78" s="10">
@@ -11623,15 +11744,21 @@
       </c>
       <c r="BQ78" s="10">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="4"/>
+      <c r="D79" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G79" s="4"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7">
@@ -11765,9 +11892,15 @@
     <row r="80" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="4"/>
+      <c r="D80" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G80" s="4"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7">
@@ -11901,9 +12034,15 @@
     <row r="81" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="4"/>
+      <c r="D81" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G81" s="4"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7">
@@ -12034,131 +12173,143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+    <row r="82" spans="2:69" ht="60" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G82" s="4">
+        <v>2</v>
+      </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="7"/>
       <c r="O82" s="7">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P82" s="9"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S82" s="9"/>
       <c r="T82" s="7"/>
       <c r="U82" s="7">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V82" s="9"/>
       <c r="W82" s="7"/>
       <c r="X82" s="7">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y82" s="9"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="7">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB82" s="9"/>
       <c r="AC82" s="7"/>
       <c r="AD82" s="7">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE82" s="9"/>
       <c r="AF82" s="7"/>
       <c r="AG82" s="7">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH82" s="9"/>
       <c r="AI82" s="7"/>
       <c r="AJ82" s="7">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK82" s="9"/>
       <c r="AL82" s="7"/>
       <c r="AM82" s="7">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN82" s="9"/>
       <c r="AO82" s="7"/>
       <c r="AP82" s="7">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ82" s="9"/>
       <c r="AR82" s="7"/>
       <c r="AS82" s="7">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT82" s="9"/>
       <c r="AU82" s="7"/>
       <c r="AV82" s="7">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW82" s="9"/>
       <c r="AX82" s="7"/>
       <c r="AY82" s="7">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ82" s="9"/>
       <c r="BA82" s="7"/>
       <c r="BB82" s="7">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC82" s="9"/>
       <c r="BD82" s="7"/>
       <c r="BE82" s="7">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF82" s="9"/>
       <c r="BG82" s="7"/>
       <c r="BH82" s="7">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI82" s="9"/>
       <c r="BJ82" s="7"/>
       <c r="BK82" s="7">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL82" s="9"/>
       <c r="BM82" s="7"/>
       <c r="BN82" s="7">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO82" s="9"/>
       <c r="BP82" s="10">
@@ -12167,15 +12318,21 @@
       </c>
       <c r="BQ82" s="10">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="4"/>
+      <c r="D83" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G83" s="4"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7">
@@ -12309,9 +12466,15 @@
     <row r="84" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="4"/>
+      <c r="D84" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G84" s="4"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7">
@@ -12445,9 +12608,15 @@
     <row r="85" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="4"/>
+      <c r="D85" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G85" s="4"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7">
@@ -12594,115 +12763,115 @@
       <c r="K86" s="7"/>
       <c r="L86" s="7">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="7"/>
       <c r="O86" s="7">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P86" s="9"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S86" s="9"/>
       <c r="T86" s="7"/>
       <c r="U86" s="7">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V86" s="9"/>
       <c r="W86" s="7"/>
       <c r="X86" s="7">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y86" s="9"/>
       <c r="Z86" s="7"/>
       <c r="AA86" s="7">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB86" s="9"/>
       <c r="AC86" s="7"/>
       <c r="AD86" s="7">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE86" s="9"/>
       <c r="AF86" s="7"/>
       <c r="AG86" s="7">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH86" s="9"/>
       <c r="AI86" s="7"/>
       <c r="AJ86" s="7">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK86" s="9"/>
       <c r="AL86" s="7"/>
       <c r="AM86" s="7">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN86" s="9"/>
       <c r="AO86" s="7"/>
       <c r="AP86" s="7">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ86" s="9"/>
       <c r="AR86" s="7"/>
       <c r="AS86" s="7">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT86" s="9"/>
       <c r="AU86" s="7"/>
       <c r="AV86" s="7">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW86" s="9"/>
       <c r="AX86" s="7"/>
       <c r="AY86" s="7">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ86" s="9"/>
       <c r="BA86" s="7"/>
       <c r="BB86" s="7">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC86" s="9"/>
       <c r="BD86" s="7"/>
       <c r="BE86" s="7">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF86" s="9"/>
       <c r="BG86" s="7"/>
       <c r="BH86" s="7">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI86" s="9"/>
       <c r="BJ86" s="7"/>
       <c r="BK86" s="7">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL86" s="9"/>
       <c r="BM86" s="7"/>
       <c r="BN86" s="7">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO86" s="9"/>
       <c r="BP86" s="10">
@@ -12711,7 +12880,7 @@
       </c>
       <c r="BQ86" s="10">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="2:69" x14ac:dyDescent="0.25">
@@ -16524,16 +16693,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BD4:BE4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -16545,6 +16704,16 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BD4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Documentacion/Sprint Backlog.xlsx
+++ b/Documentacion/Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4974C2E8-A2A5-4268-B7BC-F36ADBA39609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407017D5-86EB-41AC-8C6C-D1DF9285CEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="124">
   <si>
     <t>Columna</t>
   </si>
@@ -402,6 +402,15 @@
   </si>
   <si>
     <t>HU021</t>
+  </si>
+  <si>
+    <t>Andres Lagos</t>
+  </si>
+  <si>
+    <t>Jorge Zumba</t>
+  </si>
+  <si>
+    <t>Hugo Cañizares</t>
   </si>
 </sst>
 </file>
@@ -908,10 +917,10 @@
   <dimension ref="B1:BQ114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="CT6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4010,7 +4019,7 @@
         <v>77</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>52</v>
@@ -4152,7 +4161,7 @@
         <v>78</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>52</v>
@@ -4294,7 +4303,7 @@
         <v>79</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>52</v>
@@ -4436,7 +4445,7 @@
         <v>80</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>52</v>
@@ -4582,7 +4591,7 @@
         <v>62</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>52</v>
@@ -4726,7 +4735,7 @@
         <v>83</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>52</v>
@@ -4868,7 +4877,7 @@
         <v>84</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>52</v>
@@ -5010,7 +5019,7 @@
         <v>85</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>52</v>
@@ -5156,7 +5165,7 @@
         <v>62</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>52</v>
@@ -5300,7 +5309,7 @@
         <v>83</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>52</v>
@@ -5442,7 +5451,7 @@
         <v>84</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>52</v>
@@ -5584,7 +5593,7 @@
         <v>85</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>52</v>
@@ -5730,7 +5739,7 @@
         <v>62</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>52</v>
@@ -5874,7 +5883,7 @@
         <v>83</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>52</v>
@@ -6016,7 +6025,7 @@
         <v>84</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>52</v>
@@ -6158,7 +6167,7 @@
         <v>85</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>52</v>
@@ -6304,7 +6313,7 @@
         <v>62</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>52</v>
@@ -6448,7 +6457,7 @@
         <v>83</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>52</v>
@@ -6590,7 +6599,7 @@
         <v>84</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>52</v>
@@ -6732,7 +6741,7 @@
         <v>85</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>52</v>
@@ -6878,7 +6887,7 @@
         <v>62</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>52</v>
@@ -7022,7 +7031,7 @@
         <v>83</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>52</v>
@@ -7164,7 +7173,7 @@
         <v>84</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>52</v>
@@ -7306,7 +7315,7 @@
         <v>85</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>52</v>
@@ -7452,7 +7461,7 @@
         <v>62</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>52</v>
@@ -7596,7 +7605,7 @@
         <v>83</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>52</v>
@@ -7738,7 +7747,7 @@
         <v>84</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>52</v>
@@ -7880,7 +7889,7 @@
         <v>85</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>52</v>
@@ -8600,7 +8609,7 @@
         <v>62</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>52</v>
@@ -8744,7 +8753,7 @@
         <v>83</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>52</v>
@@ -8886,7 +8895,7 @@
         <v>84</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>52</v>
@@ -9028,7 +9037,7 @@
         <v>85</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>52</v>
@@ -9174,7 +9183,7 @@
         <v>62</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>52</v>
@@ -9318,7 +9327,7 @@
         <v>83</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>52</v>
@@ -9460,7 +9469,7 @@
         <v>84</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>52</v>
@@ -9602,7 +9611,7 @@
         <v>85</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>52</v>
@@ -9748,7 +9757,7 @@
         <v>62</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>52</v>
@@ -9890,7 +9899,7 @@
         <v>83</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>52</v>
@@ -10032,7 +10041,7 @@
         <v>84</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>52</v>
@@ -10174,7 +10183,7 @@
         <v>85</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>52</v>
@@ -10320,7 +10329,7 @@
         <v>109</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>52</v>
@@ -10464,7 +10473,7 @@
         <v>84</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>52</v>
@@ -10606,7 +10615,7 @@
         <v>85</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>52</v>
@@ -10748,7 +10757,7 @@
         <v>110</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>52</v>
@@ -10890,7 +10899,7 @@
         <v>111</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>52</v>
@@ -11036,7 +11045,7 @@
         <v>114</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>52</v>
@@ -11180,7 +11189,7 @@
         <v>84</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>52</v>
@@ -11322,7 +11331,7 @@
         <v>85</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>52</v>
@@ -11464,7 +11473,7 @@
         <v>115</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>52</v>
@@ -11610,7 +11619,7 @@
         <v>62</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>52</v>
@@ -11754,7 +11763,7 @@
         <v>83</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>52</v>
@@ -11896,7 +11905,7 @@
         <v>84</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>52</v>
@@ -12038,7 +12047,7 @@
         <v>85</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>52</v>
@@ -12184,7 +12193,7 @@
         <v>62</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>52</v>
@@ -12328,7 +12337,7 @@
         <v>83</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>52</v>
@@ -12470,7 +12479,7 @@
         <v>84</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>52</v>
@@ -12612,7 +12621,7 @@
         <v>85</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>52</v>
@@ -16693,6 +16702,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BD4:BE4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -16704,16 +16723,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BD4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
